--- a/どうぶつのもり.xlsx
+++ b/どうぶつのもり.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katuneko\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamca\source\katuneko\MISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD682CC0-486E-4BC5-ACB1-CEB156A54B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF9CBAD-4D78-4EA4-89CD-0BE67AFBC4C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="870" windowWidth="26490" windowHeight="15240" xr2:uid="{769DC504-F119-4236-9B7B-48AA3EFD8C09}"/>
+    <workbookView xWindow="1163" yWindow="-98" windowWidth="23235" windowHeight="16395" xr2:uid="{769DC504-F119-4236-9B7B-48AA3EFD8C09}"/>
   </bookViews>
   <sheets>
     <sheet name="順方向" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="132">
   <si>
     <t>00</t>
     <phoneticPr fontId="2"/>
@@ -486,13 +486,25 @@
     <t>A2</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -636,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -939,36 +951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -996,38 +978,168 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="thin">
         <color theme="0"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color theme="0"/>
-      </diagonal>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -1035,7 +1147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1060,7 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1237,16 +1349,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,18 +1360,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1345,22 +1439,100 @@
     <xf numFmtId="9" fontId="6" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="184" formatCode="&quot;&quot;"/>
+      <numFmt numFmtId="177" formatCode="&quot;&quot;"/>
     </dxf>
     <dxf>
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="184" formatCode="&quot;&quot;"/>
+      <numFmt numFmtId="177" formatCode="&quot;&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="&quot;&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1681,33 +1853,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26F14A2-F0BF-4CC6-8D08-728C02EB3D3C}">
   <dimension ref="B2:AW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3.125" customWidth="1"/>
     <col min="12" max="12" width="2.5" customWidth="1"/>
     <col min="13" max="13" width="3.125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.125" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="7.75" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="2.75" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="5.5" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="2" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="3" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="5.125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.125" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="34" width="5.125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="6.125" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="5.125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.375" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="3.375" hidden="1" customWidth="1"/>
+    <col min="25" max="27" width="5.4375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="2.6875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="5.125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="2.1875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="2.25" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="2" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="5.4375" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="3.4375" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="3.875" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="5.125" hidden="1" customWidth="1"/>
-    <col min="39" max="40" width="3.25" hidden="1" customWidth="1"/>
-    <col min="41" max="49" width="5.125" customWidth="1"/>
+    <col min="39" max="40" width="2.6875" hidden="1" customWidth="1"/>
+    <col min="41" max="49" width="5.6875" customWidth="1"/>
     <col min="50" max="50" width="2.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:49" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:49" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="2:49" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8">
@@ -1738,14 +1916,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:49" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:49" ht="22.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="P4">
         <f>MAX(P5:P13)-1</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <f>MAX(Q5:Q13)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
@@ -1777,15 +1955,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:49" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
       <c r="E5" s="47"/>
       <c r="F5" s="59"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="71"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="32"/>
       <c r="N5">
         <f>_xlfn.IFNA(MATCH(1,C5:K5,0),0)</f>
@@ -1805,7 +1983,7 @@
       </c>
       <c r="R5">
         <f>ROUNDDOWN(Q4/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>95</v>
@@ -1831,60 +2009,60 @@
       <c r="AN5" s="8">
         <v>1</v>
       </c>
-      <c r="AO5" s="77" cm="1">
+      <c r="AO5" s="71" cm="1">
         <f t="array" ref="AO5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="78" cm="1">
+      <c r="AP5" s="72" cm="1">
         <f t="array" ref="AP5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="79" cm="1">
+      <c r="AQ5" s="73" cm="1">
         <f t="array" ref="AQ5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="80" cm="1">
+      <c r="AR5" s="74" cm="1">
         <f t="array" ref="AR5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AS5" s="81" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="75" cm="1">
         <f t="array" ref="AS5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="82" cm="1">
+      <c r="AT5" s="76" cm="1">
         <f t="array" ref="AT5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="80" cm="1">
+      <c r="AU5" s="74" cm="1">
         <f t="array" ref="AU5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AV5" s="81" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="75" cm="1">
         <f t="array" ref="AV5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW5" s="82" cm="1">
+      <c r="AW5" s="76" cm="1">
         <f t="array" ref="AW5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:49" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C6" s="33"/>
-      <c r="D6" s="69"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="48"/>
       <c r="F6" s="60"/>
       <c r="G6" s="20"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="72"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="20"/>
       <c r="K6" s="34"/>
       <c r="N6" t="e">
         <f t="shared" ref="N6:N13" si="0">MATCH(1,C6:K6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O6" t="e">
+      <c r="O6">
         <f>MATCH(1,D5:D13)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="P6">
         <f t="shared" ref="P6:Q13" si="1">_xlfn.IFNA(N6,0)</f>
@@ -1892,11 +2070,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <f>ROUNDDOWN(P4/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>95</v>
@@ -1922,56 +2100,58 @@
       <c r="AN6" s="8">
         <v>2</v>
       </c>
-      <c r="AO6" s="83" cm="1">
+      <c r="AO6" s="77" cm="1">
         <f t="array" ref="AO6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="84" cm="1">
+        <v>0.25</v>
+      </c>
+      <c r="AP6" s="78" cm="1">
         <f t="array" ref="AP6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="85" cm="1">
+        <v>0.25</v>
+      </c>
+      <c r="AQ6" s="79" cm="1">
         <f t="array" ref="AQ6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="86" cm="1">
+      <c r="AR6" s="80" cm="1">
         <f t="array" ref="AR6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS6" s="87" cm="1">
+      <c r="AS6" s="81" cm="1">
         <f t="array" ref="AS6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="88" cm="1">
+      <c r="AT6" s="82" cm="1">
         <f t="array" ref="AT6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU6" s="86" cm="1">
+      <c r="AU6" s="80" cm="1">
         <f t="array" ref="AU6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV6" s="87" cm="1">
+      <c r="AV6" s="81" cm="1">
         <f t="array" ref="AV6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW6" s="88" cm="1">
+      <c r="AW6" s="82" cm="1">
         <f t="array" ref="AW6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="74"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="68"/>
+    <row r="7" spans="2:49" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C7" s="99"/>
+      <c r="D7" s="103">
+        <v>1</v>
+      </c>
+      <c r="E7" s="67"/>
       <c r="F7" s="61"/>
       <c r="G7" s="43"/>
       <c r="H7" s="44"/>
       <c r="I7" s="54"/>
       <c r="J7" s="43"/>
       <c r="K7" s="44"/>
-      <c r="N7" t="e">
+      <c r="N7">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="O7" t="e">
         <f>MATCH(1,E5:E13)</f>
@@ -1979,7 +2159,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -1987,7 +2167,7 @@
       </c>
       <c r="R7">
         <f>MOD(Q4,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>95</v>
@@ -2013,59 +2193,57 @@
       <c r="AN7" s="8">
         <v>3</v>
       </c>
-      <c r="AO7" s="89" cm="1">
+      <c r="AO7" s="83" cm="1">
         <f t="array" ref="AO7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP7" s="90" cm="1">
+      <c r="AP7" s="84" cm="1">
         <f t="array" ref="AP7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="91" cm="1">
+      <c r="AQ7" s="85" cm="1">
         <f t="array" ref="AQ7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR7" s="92" cm="1">
+      <c r="AR7" s="86" cm="1">
         <f t="array" ref="AR7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS7" s="93" cm="1">
+      <c r="AS7" s="87" cm="1">
         <f t="array" ref="AS7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="94" cm="1">
+      <c r="AT7" s="88" cm="1">
         <f t="array" ref="AT7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="92" cm="1">
+      <c r="AU7" s="86" cm="1">
         <f t="array" ref="AU7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV7" s="93" cm="1">
+      <c r="AV7" s="87" cm="1">
         <f t="array" ref="AV7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW7" s="94" cm="1">
+      <c r="AW7" s="88" cm="1">
         <f t="array" ref="AW7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B8" s="76"/>
-      <c r="C8" s="75"/>
+    <row r="8" spans="2:49" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B8" s="98"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="56"/>
       <c r="E8" s="50"/>
       <c r="F8" s="62"/>
       <c r="G8" s="41"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="55">
-        <v>1</v>
-      </c>
+      <c r="I8" s="55"/>
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
-      <c r="N8">
+      <c r="N8" t="e">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="O8" t="e">
         <f>MATCH(1,F5:F13)</f>
@@ -2073,7 +2251,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
@@ -2081,7 +2259,7 @@
       </c>
       <c r="R8">
         <f>MOD(P4,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="8">
         <v>2</v>
@@ -2089,45 +2267,45 @@
       <c r="AN8" s="8">
         <v>1</v>
       </c>
-      <c r="AO8" s="77" cm="1">
+      <c r="AO8" s="71" cm="1">
         <f t="array" ref="AO8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="78" cm="1">
+      <c r="AP8" s="72" cm="1">
         <f t="array" ref="AP8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="79" cm="1">
+      <c r="AQ8" s="73" cm="1">
         <f t="array" ref="AQ8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR8" s="77" cm="1">
+      <c r="AR8" s="71" cm="1">
         <f t="array" ref="AR8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AS8" s="78" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="72" cm="1">
         <f t="array" ref="AS8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="79" cm="1">
+      <c r="AT8" s="73" cm="1">
         <f t="array" ref="AT8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="80" cm="1">
+      <c r="AU8" s="74" cm="1">
         <f t="array" ref="AU8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AV8" s="81" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="75" cm="1">
         <f t="array" ref="AV8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW8" s="82" cm="1">
+      <c r="AW8" s="76" cm="1">
         <f t="array" ref="AW8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:49" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="C9" s="100"/>
       <c r="D9" s="21"/>
       <c r="E9" s="48"/>
       <c r="F9" s="33"/>
@@ -2158,44 +2336,44 @@
       <c r="AN9" s="8">
         <v>2</v>
       </c>
-      <c r="AO9" s="83" cm="1">
+      <c r="AO9" s="77" cm="1">
         <f t="array" ref="AO9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
-        <v>0</v>
-      </c>
-      <c r="AP9" s="84" cm="1">
+        <v>0.25</v>
+      </c>
+      <c r="AP9" s="78" cm="1">
         <f t="array" ref="AP9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="85" cm="1">
+        <v>0.25</v>
+      </c>
+      <c r="AQ9" s="79" cm="1">
         <f t="array" ref="AQ9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR9" s="83" cm="1">
+      <c r="AR9" s="77" cm="1">
         <f t="array" ref="AR9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="84" cm="1">
+      <c r="AS9" s="78" cm="1">
         <f t="array" ref="AS9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="85" cm="1">
+      <c r="AT9" s="79" cm="1">
         <f t="array" ref="AT9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="86" cm="1">
+      <c r="AU9" s="80" cm="1">
         <f t="array" ref="AU9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="87" cm="1">
+      <c r="AV9" s="81" cm="1">
         <f t="array" ref="AV9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW9" s="88" cm="1">
+      <c r="AW9" s="82" cm="1">
         <f t="array" ref="AW9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:49" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="49"/>
@@ -2227,44 +2405,44 @@
       <c r="AN10" s="8">
         <v>3</v>
       </c>
-      <c r="AO10" s="89" cm="1">
+      <c r="AO10" s="83" cm="1">
         <f t="array" ref="AO10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="90" cm="1">
+      <c r="AP10" s="84" cm="1">
         <f t="array" ref="AP10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="91" cm="1">
+      <c r="AQ10" s="85" cm="1">
         <f t="array" ref="AQ10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR10" s="95" cm="1">
+      <c r="AR10" s="89" cm="1">
         <f t="array" ref="AR10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="90" cm="1">
+      <c r="AS10" s="84" cm="1">
         <f t="array" ref="AS10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT10" s="96" cm="1">
+      <c r="AT10" s="90" cm="1">
         <f t="array" ref="AT10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="92" cm="1">
+      <c r="AU10" s="86" cm="1">
         <f t="array" ref="AU10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV10" s="93" cm="1">
+      <c r="AV10" s="87" cm="1">
         <f t="array" ref="AV10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW10" s="94" cm="1">
+      <c r="AW10" s="88" cm="1">
         <f t="array" ref="AW10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:49" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
       <c r="E11" s="51"/>
@@ -2278,9 +2456,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="e">
         <f>MATCH(1,I5:I13)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
@@ -2288,7 +2466,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="8">
         <v>3</v>
@@ -2296,44 +2474,44 @@
       <c r="AN11" s="8">
         <v>1</v>
       </c>
-      <c r="AO11" s="97" cm="1">
+      <c r="AO11" s="91" cm="1">
         <f t="array" ref="AO11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP11" s="98" cm="1">
+      <c r="AP11" s="92" cm="1">
         <f t="array" ref="AP11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="99" cm="1">
+      <c r="AQ11" s="93" cm="1">
         <f t="array" ref="AQ11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR11" s="97" cm="1">
+      <c r="AR11" s="91" cm="1">
         <f t="array" ref="AR11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AS11" s="98" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="92" cm="1">
         <f t="array" ref="AS11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="99" cm="1">
+      <c r="AT11" s="93" cm="1">
         <f t="array" ref="AT11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="77" cm="1">
+      <c r="AU11" s="71" cm="1">
         <f t="array" ref="AU11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AV11" s="78" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="72" cm="1">
         <f t="array" ref="AV11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW11" s="79" cm="1">
+      <c r="AW11" s="73" cm="1">
         <f t="array" ref="AW11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:49" x14ac:dyDescent="0.7">
       <c r="C12" s="33"/>
       <c r="D12" s="21"/>
       <c r="E12" s="52"/>
@@ -2390,44 +2568,44 @@
       <c r="AN12" s="8">
         <v>2</v>
       </c>
-      <c r="AO12" s="83" cm="1">
+      <c r="AO12" s="77" cm="1">
         <f t="array" ref="AO12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP12" s="84" cm="1">
+      <c r="AP12" s="78" cm="1">
         <f t="array" ref="AP12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="100" cm="1">
+      <c r="AQ12" s="94" cm="1">
         <f t="array" ref="AQ12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR12" s="83" cm="1">
+      <c r="AR12" s="77" cm="1">
         <f t="array" ref="AR12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS12" s="84" cm="1">
+      <c r="AS12" s="78" cm="1">
         <f t="array" ref="AS12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="100" cm="1">
+      <c r="AT12" s="94" cm="1">
         <f t="array" ref="AT12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="83" cm="1">
+      <c r="AU12" s="77" cm="1">
         <f t="array" ref="AU12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV12" s="84" cm="1">
+      <c r="AV12" s="78" cm="1">
         <f t="array" ref="AV12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW12" s="85" cm="1">
+      <c r="AW12" s="79" cm="1">
         <f t="array" ref="AW12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:49" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="49"/>
@@ -2456,7 +2634,7 @@
       <c r="W13"/>
       <c r="AD13" s="24">
         <f>R5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="25">
         <f>R15</f>
@@ -2464,7 +2642,7 @@
       </c>
       <c r="AF13">
         <f>MATCH(AD13,$W$19:$W$27,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG13">
         <f>MATCH(AE13,$X$19:$X$27,0)</f>
@@ -2472,7 +2650,7 @@
       </c>
       <c r="AH13" s="2" cm="1">
         <f t="array" ref="AH13">INDEX(Y$19:Y$27,$AF13+($AG13-1))</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI13" s="2" cm="1">
         <f t="array" ref="AI13">INDEX(Z$19:Z$27,$AF13+($AG13-1))</f>
@@ -2480,7 +2658,7 @@
       </c>
       <c r="AJ13" s="2" cm="1">
         <f t="array" ref="AJ13">INDEX(AA$19:AA$27,$AF13+($AG13-1))</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="8">
@@ -2489,47 +2667,48 @@
       <c r="AN13" s="8">
         <v>3</v>
       </c>
-      <c r="AO13" s="89" cm="1">
+      <c r="AO13" s="83" cm="1">
         <f t="array" ref="AO13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="90" cm="1">
+      <c r="AP13" s="84" cm="1">
         <f t="array" ref="AP13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="91" cm="1">
+      <c r="AQ13" s="85" cm="1">
         <f t="array" ref="AQ13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR13" s="89" cm="1">
+      <c r="AR13" s="83" cm="1">
         <f t="array" ref="AR13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="90" cm="1">
+      <c r="AS13" s="84" cm="1">
         <f t="array" ref="AS13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="101" cm="1">
+      <c r="AT13" s="95" cm="1">
         <f t="array" ref="AT13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="102" cm="1">
+      <c r="AU13" s="96" cm="1">
         <f t="array" ref="AU13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV13" s="90" cm="1">
+      <c r="AV13" s="84" cm="1">
         <f t="array" ref="AV13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW13" s="96" cm="1">
+      <c r="AW13" s="90" cm="1">
         <f t="array" ref="AW13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:49" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="I14" s="106"/>
       <c r="P14">
         <f>MAX(P15:P23)-1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <f>MAX(Q15:Q23)-1</f>
@@ -2546,50 +2725,50 @@
       </c>
       <c r="AD14" s="24">
         <f>R6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="25">
         <f>R16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <f t="shared" ref="AF14:AF16" si="2">MATCH(AD14,$W$19:$W$27,0)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <f t="shared" ref="AG14:AG16" si="3">MATCH(AE14,$X$19:$X$27,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="2" cm="1">
         <f t="array" ref="AH14">INDEX(Y$19:Y$27,$AF14+($AG14-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="2" cm="1">
         <f t="array" ref="AI14">INDEX(Z$19:Z$27,$AF14+($AG14-1))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="2" cm="1">
         <f t="array" ref="AJ14">INDEX(AA$19:AA$27,$AF14+($AG14-1))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:49" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
       <c r="E15" s="47"/>
       <c r="F15" s="59"/>
       <c r="G15" s="31"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="71"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="32"/>
       <c r="N15">
         <f>_xlfn.IFNA(MATCH(1,C15:K15,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O15" t="e">
+      <c r="O15">
         <f>MATCH(1,C15:C23)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="P15">
         <f>_xlfn.IFNA(N15,0)</f>
@@ -2597,7 +2776,7 @@
       </c>
       <c r="Q15">
         <f>_xlfn.IFNA(O15,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <f>ROUNDDOWN(Q14/3,0)</f>
@@ -2614,7 +2793,7 @@
       </c>
       <c r="AD15" s="24">
         <f>R7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="25">
         <f>R17</f>
@@ -2622,7 +2801,7 @@
       </c>
       <c r="AF15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG15">
         <f t="shared" si="3"/>
@@ -2630,25 +2809,25 @@
       </c>
       <c r="AH15" s="2" cm="1">
         <f t="array" ref="AH15">INDEX(Y$19:Y$27,$AF15+($AG15-1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="2" cm="1">
         <f t="array" ref="AI15">INDEX(Z$19:Z$27,$AF15+($AG15-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="2" cm="1">
         <f t="array" ref="AJ15">INDEX(AA$19:AA$27,$AF15+($AG15-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:49" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C16" s="33"/>
-      <c r="D16" s="69"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="48"/>
       <c r="F16" s="60"/>
       <c r="G16" s="20"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="72"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="20"/>
       <c r="K16" s="34"/>
       <c r="N16" t="e">
@@ -2669,7 +2848,7 @@
       </c>
       <c r="R16">
         <f>ROUNDDOWN(P14/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="s">
         <v>127</v>
@@ -2685,7 +2864,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="26">
         <f>R8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="27">
         <f>R18</f>
@@ -2693,7 +2872,7 @@
       </c>
       <c r="AF16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG16">
         <f t="shared" si="3"/>
@@ -2701,21 +2880,21 @@
       </c>
       <c r="AH16" s="2" cm="1">
         <f t="array" ref="AH16">INDEX(Y$19:Y$27,$AF16+($AG16-1))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI16" s="2" cm="1">
         <f t="array" ref="AI16">INDEX(Z$19:Z$27,$AF16+($AG16-1))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ16" s="2" cm="1">
         <f t="array" ref="AJ16">INDEX(AA$19:AA$27,$AF16+($AG16-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="74"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="68"/>
+    <row r="17" spans="2:29" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C17" s="99"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="61"/>
       <c r="G17" s="43"/>
       <c r="H17" s="44"/>
@@ -2755,13 +2934,14 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C18" s="75"/>
+    <row r="18" spans="2:29" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B18" s="98"/>
+      <c r="C18" s="109">
+        <v>1</v>
+      </c>
       <c r="D18" s="56"/>
       <c r="E18" s="50"/>
-      <c r="F18" s="62">
-        <v>1</v>
-      </c>
+      <c r="F18" s="62"/>
       <c r="G18" s="41"/>
       <c r="H18" s="42"/>
       <c r="I18" s="55"/>
@@ -2769,19 +2949,19 @@
       <c r="K18" s="46"/>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="e">
         <f>MATCH(1,F15:F23)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <f>MOD(P14,3)</f>
@@ -2797,9 +2977,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C19" s="33"/>
-      <c r="D19" s="21"/>
+    <row r="19" spans="2:29" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="C19" s="105"/>
+      <c r="D19" s="104"/>
       <c r="E19" s="48"/>
       <c r="F19" s="33"/>
       <c r="G19" s="21"/>
@@ -2841,7 +3021,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="3:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="49"/>
@@ -2885,7 +3065,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.7">
       <c r="C21" s="39"/>
       <c r="D21" s="40"/>
       <c r="E21" s="51"/>
@@ -2929,7 +3109,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.7">
       <c r="C22" s="33"/>
       <c r="D22" s="21"/>
       <c r="E22" s="52"/>
@@ -2973,7 +3153,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="3:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="49"/>
@@ -3015,7 +3195,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.7">
       <c r="S24" s="28" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3223,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.7">
       <c r="S25" s="14" t="s">
         <v>115</v>
       </c>
@@ -3071,7 +3251,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.7">
       <c r="S26" s="14" t="s">
         <v>118</v>
       </c>
@@ -3097,7 +3277,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.7">
       <c r="W27">
         <v>2</v>
       </c>
@@ -3116,7 +3296,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="K3 B11 B8 B5">
+  <conditionalFormatting sqref="B11 K3 B8 B5">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3137,7 +3317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AW13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2" operator="greaterThan">
@@ -3145,73 +3325,149 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134F5AD1-EAF0-4554-8151-3F440D356A49}">
-  <dimension ref="B2:AP36"/>
+  <dimension ref="B2:BA40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3.125" customWidth="1"/>
-    <col min="12" max="12" width="2.5" customWidth="1"/>
-    <col min="13" max="13" width="3.125" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.875" customWidth="1"/>
-    <col min="23" max="23" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="2.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.25" style="7" customWidth="1"/>
-    <col min="32" max="32" width="2.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="2.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="43" width="5.125" customWidth="1"/>
-    <col min="44" max="44" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.8125" customWidth="1"/>
+    <col min="14" max="14" width="4.8125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0.1875" hidden="1" customWidth="1"/>
+    <col min="22" max="24" width="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="3.5" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="3.8125" style="7" customWidth="1"/>
+    <col min="28" max="30" width="6.5" style="7" customWidth="1"/>
+    <col min="31" max="31" width="4.875" customWidth="1"/>
+    <col min="32" max="33" width="4.875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="3" customWidth="1"/>
+    <col min="35" max="39" width="6.625" customWidth="1"/>
+    <col min="40" max="42" width="6.625" style="7" customWidth="1"/>
+    <col min="43" max="43" width="2.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="2.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="54" width="5.125" customWidth="1"/>
+    <col min="55" max="55" width="2.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:42" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:42" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:52" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="2:52" hidden="1" x14ac:dyDescent="0.7">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:52" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="P4">
         <f>MAX(P5:P13)-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <f>MAX(Q5:Q13)-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="C5" s="29"/>
+      <c r="V4">
+        <f>MAX(V5:V13)-1</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>MAX(W5:W13)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
       <c r="D5" s="30"/>
       <c r="E5" s="47"/>
-      <c r="F5" s="59"/>
+      <c r="F5" s="59">
+        <v>1</v>
+      </c>
       <c r="G5" s="31"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="73">
-        <v>1</v>
-      </c>
-      <c r="J5" s="71"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="32"/>
       <c r="N5">
-        <f>_xlfn.IFNA(MATCH(1,C5:K5,0),0)</f>
-        <v>7</v>
+        <f>MATCH(1,$C5:$K5,0)</f>
+        <v>4</v>
       </c>
       <c r="O5" t="e">
-        <f>MATCH(1,C5:C13)</f>
+        <f>MATCH(1,C$5:C$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P5">
         <f>_xlfn.IFNA(N5,0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q5">
         <f>_xlfn.IFNA(O5,0)</f>
@@ -3221,33 +3477,90 @@
         <f>ROUNDDOWN(Q4/3,0)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="U5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="C6" s="33"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="48"/>
+      <c r="T5">
+        <f>MATCH(0,$C5:$K5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f>MATCH(0,C$5:C$13,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f>_xlfn.IFNA(T5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <f>_xlfn.IFNA(U5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f>ROUNDDOWN(W4/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="71" cm="1">
+        <f t="array" ref="AH5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="72" cm="1">
+        <f t="array" ref="AI5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="73" cm="1">
+        <f t="array" ref="AJ5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="74" cm="1">
+        <f t="array" ref="AK5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL5" s="75" cm="1">
+        <f t="array" ref="AL5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AM5" s="76" cm="1">
+        <f t="array" ref="AM5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="74" cm="1">
+        <f t="array" ref="AN5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="75" cm="1">
+        <f t="array" ref="AO5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AP5" s="76" cm="1">
+        <f t="array" ref="AP5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="60"/>
       <c r="G6" s="20"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="72"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="20"/>
       <c r="K6" s="34"/>
       <c r="N6" t="e">
-        <f t="shared" ref="N6:N13" si="0">MATCH(1,C6:K6,0)</f>
+        <f t="shared" ref="N6:N13" si="0">MATCH(1,$C6:$K6,0)</f>
         <v>#N/A</v>
       </c>
       <c r="O6" t="e">
-        <f>MATCH(1,D5:D13)</f>
+        <f>MATCH(1,D$5:D$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P6">
@@ -3260,26 +3573,91 @@
       </c>
       <c r="R6">
         <f>ROUNDDOWN(P4/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="T6" s="24">
-        <f>R5</f>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="2:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="74"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="T6" t="e">
+        <f t="shared" ref="T6:T13" si="2">MATCH(0,$C6:$K6,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U6" t="e">
+        <f>MATCH(0,D$5:D$13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V13" si="3">_xlfn.IFNA(T6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W13" si="4">_xlfn.IFNA(U6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>ROUNDDOWN(V4/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" s="117">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="117">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="117">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="77" cm="1">
+        <f t="array" ref="AH6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="78" cm="1">
+        <f t="array" ref="AI6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="79" cm="1">
+        <f t="array" ref="AJ6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="80" cm="1">
+        <f t="array" ref="AK6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AL6" s="81" cm="1">
+        <f t="array" ref="AL6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AM6" s="82" cm="1">
+        <f t="array" ref="AM6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="80" cm="1">
+        <f t="array" ref="AN6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AO6" s="81" cm="1">
+        <f t="array" ref="AO6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AP6" s="82" cm="1">
+        <f t="array" ref="AP6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C7" s="116"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="43"/>
       <c r="H7" s="44"/>
       <c r="I7" s="54"/>
@@ -3290,7 +3668,7 @@
         <v>#N/A</v>
       </c>
       <c r="O7" t="e">
-        <f>MATCH(1,E5:E13)</f>
+        <f>MATCH(1,E$5:E$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P7">
@@ -3305,26 +3683,96 @@
         <f>MOD(Q4,3)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="24">
-        <f>R6</f>
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AL7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-    </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="B8" s="76"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="56"/>
+      <c r="T7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U7" t="e">
+        <f>MATCH(0,E$5:E$13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>MOD(W4,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="117">
+        <f>R5</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="117">
+        <f>X5</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="119" cm="1">
+        <f t="array" ref="AB7">INDEX(AB$16:AB$24,MATCH($AA7,$AA$16:$AA$18,0)-1+MATCH($Z7,$Z$16:$Z$24,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="119" cm="1">
+        <f t="array" ref="AC7">INDEX(AC$16:AC$24,MATCH($AA7,$AA$16:$AA$18,0)-1+MATCH($Z7,$Z$16:$Z$24,0))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD7" s="119" cm="1">
+        <f t="array" ref="AD7">INDEX(AD$16:AD$24,MATCH($AA7,$AA$16:$AA$18,0)-1+MATCH($Z7,$Z$16:$Z$24,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="83" cm="1">
+        <f t="array" ref="AH7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="84" cm="1">
+        <f t="array" ref="AI7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="85" cm="1">
+        <f t="array" ref="AJ7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="86" cm="1">
+        <f t="array" ref="AK7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="87" cm="1">
+        <f t="array" ref="AL7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="88" cm="1">
+        <f t="array" ref="AM7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="86" cm="1">
+        <f t="array" ref="AN7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="87" cm="1">
+        <f t="array" ref="AO7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="88" cm="1">
+        <f t="array" ref="AP7">INDEX($AB$7:$AD$7,1,$AF7)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG7)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+    </row>
+    <row r="8" spans="2:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B8" s="98"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="50"/>
       <c r="F8" s="62"/>
       <c r="G8" s="41"/>
@@ -3336,9 +3784,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O8" t="e">
-        <f>MATCH(1,F5:F13)</f>
-        <v>#N/A</v>
+      <c r="O8">
+        <f>MATCH(1,F$5:F$13,0)</f>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
@@ -3346,23 +3794,98 @@
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f>MOD(P4,3)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="24">
-        <f>R7</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="33"/>
-      <c r="D9" s="21"/>
+      <c r="T8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U8" t="e">
+        <f>MATCH(0,F$5:F$13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>MOD(V4,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="117">
+        <f>R6</f>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="117">
+        <f>X6</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="119" cm="1">
+        <f t="array" ref="AB8">INDEX(AB$16:AB$24,MATCH($AA8,$AA$16:$AA$18,0)-1+MATCH($Z8,$Z$16:$Z$24,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="119" cm="1">
+        <f t="array" ref="AC8">INDEX(AC$16:AC$24,MATCH($AA8,$AA$16:$AA$18,0)-1+MATCH($Z8,$Z$16:$Z$24,0))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD8" s="119" cm="1">
+        <f t="array" ref="AD8">INDEX(AD$16:AD$24,MATCH($AA8,$AA$16:$AA$18,0)-1+MATCH($Z8,$Z$16:$Z$24,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="71" cm="1">
+        <f t="array" ref="AH8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="72" cm="1">
+        <f t="array" ref="AI8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="73" cm="1">
+        <f t="array" ref="AJ8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="71" cm="1">
+        <f t="array" ref="AK8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AL8" s="72" cm="1">
+        <f t="array" ref="AL8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AM8" s="73" cm="1">
+        <f t="array" ref="AM8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="74" cm="1">
+        <f t="array" ref="AN8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AO8" s="75" cm="1">
+        <f t="array" ref="AO8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AP8" s="76" cm="1">
+        <f t="array" ref="AP8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:52" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="C9" s="100"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="48"/>
       <c r="F9" s="33"/>
       <c r="G9" s="21"/>
@@ -3375,7 +3898,7 @@
         <v>#N/A</v>
       </c>
       <c r="O9" t="e">
-        <f>MATCH(1,G5:G13)</f>
+        <f>MATCH(1,G$5:G$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P9">
@@ -3386,15 +3909,86 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="26">
-        <f>R8</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U9" t="e">
+        <f>MATCH(0,G$5:G$13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="117">
+        <f>R7</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="117">
+        <f>X7</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="119" cm="1">
+        <f t="array" ref="AB9">INDEX(AB$16:AB$24,MATCH($AA9,$AA$16:$AA$18,0)-1+MATCH($Z9,$Z$16:$Z$24,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="119" cm="1">
+        <f t="array" ref="AC9">INDEX(AC$16:AC$24,MATCH($AA9,$AA$16:$AA$18,0)-1+MATCH($Z9,$Z$16:$Z$24,0))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD9" s="119" cm="1">
+        <f t="array" ref="AD9">INDEX(AD$16:AD$24,MATCH($AA9,$AA$16:$AA$18,0)-1+MATCH($Z9,$Z$16:$Z$24,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="77" cm="1">
+        <f t="array" ref="AH9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="78" cm="1">
+        <f t="array" ref="AI9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="79" cm="1">
+        <f t="array" ref="AJ9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="77" cm="1">
+        <f t="array" ref="AK9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AL9" s="78" cm="1">
+        <f t="array" ref="AL9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AM9" s="79" cm="1">
+        <f t="array" ref="AM9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="80" cm="1">
+        <f t="array" ref="AN9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AO9" s="81" cm="1">
+        <f t="array" ref="AO9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AP9" s="82" cm="1">
+        <f t="array" ref="AP9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:52" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="49"/>
@@ -3409,7 +4003,7 @@
         <v>#N/A</v>
       </c>
       <c r="O10" t="e">
-        <f>MATCH(1,H5:H13)</f>
+        <f>MATCH(1,H$5:H$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P10">
@@ -3420,8 +4014,86 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="T10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U10" t="e">
+        <f>MATCH(0,H$5:H$13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="117">
+        <f>R8</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="117">
+        <f>X8</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="119" cm="1">
+        <f t="array" ref="AB10">INDEX(AB$16:AB$24,MATCH($AA10,$AA$16:$AA$18,0)-1+MATCH($Z10,$Z$16:$Z$24,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="119" cm="1">
+        <f t="array" ref="AC10">INDEX(AC$16:AC$24,MATCH($AA10,$AA$16:$AA$18,0)-1+MATCH($Z10,$Z$16:$Z$24,0))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD10" s="119" cm="1">
+        <f t="array" ref="AD10">INDEX(AD$16:AD$24,MATCH($AA10,$AA$16:$AA$18,0)-1+MATCH($Z10,$Z$16:$Z$24,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="83" cm="1">
+        <f t="array" ref="AH10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="84" cm="1">
+        <f t="array" ref="AI10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="85" cm="1">
+        <f t="array" ref="AJ10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="89" cm="1">
+        <f t="array" ref="AK10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="84" cm="1">
+        <f t="array" ref="AL10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="90" cm="1">
+        <f t="array" ref="AM10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="86" cm="1">
+        <f t="array" ref="AN10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="87" cm="1">
+        <f t="array" ref="AO10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="88" cm="1">
+        <f t="array" ref="AP10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:52" x14ac:dyDescent="0.7">
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
       <c r="E11" s="51"/>
@@ -3435,9 +4107,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O11">
-        <f>MATCH(1,I5:I13)</f>
-        <v>1</v>
+      <c r="O11" t="e">
+        <f>MATCH(1,I$5:I$13,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
@@ -3445,10 +4117,68 @@
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U11" t="e">
+        <f>MATCH(0,I$5:I$13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="91" cm="1">
+        <f t="array" ref="AH11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="92" cm="1">
+        <f t="array" ref="AI11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="93" cm="1">
+        <f t="array" ref="AJ11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="91" cm="1">
+        <f t="array" ref="AK11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="92" cm="1">
+        <f t="array" ref="AL11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="93" cm="1">
+        <f t="array" ref="AM11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="71" cm="1">
+        <f t="array" ref="AN11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="72" cm="1">
+        <f t="array" ref="AO11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="73" cm="1">
+        <f t="array" ref="AP11">INDEX($AB$7:$AD$7,1,$AF11)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG11)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.7">
       <c r="C12" s="33"/>
       <c r="D12" s="21"/>
       <c r="E12" s="52"/>
@@ -3463,7 +4193,7 @@
         <v>#N/A</v>
       </c>
       <c r="O12" t="e">
-        <f>MATCH(1,J5:J13)</f>
+        <f>MATCH(1,J$5:J$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P12">
@@ -3474,9 +4204,68 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W12"/>
-    </row>
-    <row r="13" spans="2:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U12" t="e">
+        <f>MATCH(0,J$5:J$13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="118"/>
+      <c r="AF12" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="77" cm="1">
+        <f t="array" ref="AH12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="78" cm="1">
+        <f t="array" ref="AI12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="94" cm="1">
+        <f t="array" ref="AJ12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="77" cm="1">
+        <f t="array" ref="AK12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="78" cm="1">
+        <f t="array" ref="AL12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="94" cm="1">
+        <f t="array" ref="AM12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="77" cm="1">
+        <f t="array" ref="AN12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="78" cm="1">
+        <f t="array" ref="AO12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="79" cm="1">
+        <f t="array" ref="AP12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:52" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="49"/>
@@ -3491,7 +4280,7 @@
         <v>#N/A</v>
       </c>
       <c r="O13" t="e">
-        <f>MATCH(1,K5:K13)</f>
+        <f>MATCH(1,K$5:K$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P13">
@@ -3502,484 +4291,368 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W13"/>
-      <c r="AB13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL13">
+      <c r="T13" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U13" t="e">
+        <f>MATCH(0,K$5:K$13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="8">
         <v>3</v>
       </c>
-      <c r="AM13">
+      <c r="AG13" s="8">
         <v>3</v>
       </c>
-      <c r="AN13">
-        <v>3</v>
-      </c>
-      <c r="AO13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="U14" s="3"/>
-      <c r="W14"/>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="AC15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="2">
+      <c r="AH13" s="83" cm="1">
+        <f t="array" ref="AH13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AH$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AH$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="84" cm="1">
+        <f t="array" ref="AI13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AI$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AI$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="85" cm="1">
+        <f t="array" ref="AJ13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AJ$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AJ$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="83" cm="1">
+        <f t="array" ref="AK13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AK$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="84" cm="1">
+        <f t="array" ref="AL13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AL$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="95" cm="1">
+        <f t="array" ref="AM13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AM$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="96" cm="1">
+        <f t="array" ref="AN13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AN$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="84" cm="1">
+        <f t="array" ref="AO13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AO$4)</f>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="90" cm="1">
+        <f t="array" ref="AP13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AP$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:52" hidden="1" x14ac:dyDescent="0.7">
+      <c r="AB14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH14"/>
+    </row>
+    <row r="15" spans="2:52" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AH15"/>
+    </row>
+    <row r="16" spans="2:52" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="118">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="118">
         <v>0.5</v>
       </c>
-      <c r="AL15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="AC16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
+      <c r="AD16" s="118">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+    </row>
+    <row r="17" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="118">
         <v>0.5</v>
       </c>
-      <c r="AL16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="2">
-        <f>AL16*AM16*AN16*AO16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="AC17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="2">
+      <c r="AC17" s="118">
         <v>0.25</v>
       </c>
-      <c r="AL17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="AE18"/>
-      <c r="AL18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="AB19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="2">
+      <c r="AD17" s="118">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+    </row>
+    <row r="18" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="118">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="118">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+    </row>
+    <row r="19" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="118">
         <v>0.5</v>
       </c>
-      <c r="AL19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="2">
+      <c r="AD19" s="118">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+    </row>
+    <row r="20" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="118">
         <v>0.5</v>
       </c>
-      <c r="AP19" s="2">
-        <f>AL19*AM19*AN19*AO19</f>
+      <c r="AC20" s="118">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="AC20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="AC21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2">
+      <c r="AD20" s="118">
         <v>0.5</v>
       </c>
-      <c r="AL21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="AC22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="2">
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+    </row>
+    <row r="21" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="118">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="118">
         <v>0.5</v>
       </c>
-      <c r="AL22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="2">
+      <c r="AD21" s="118">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+    </row>
+    <row r="22" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="118">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="118">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+    </row>
+    <row r="23" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z23" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="118">
         <v>0.25</v>
       </c>
-      <c r="AP22" s="2">
-        <f>AL22*AM22*AN22*AO22</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="AC23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="7">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="2">
+      <c r="AD23" s="118">
         <v>0.5</v>
       </c>
-      <c r="AN23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AC24" s="7">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AC25" s="7">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="2">
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+    </row>
+    <row r="24" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+      <c r="Z24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="118">
         <v>0.5</v>
       </c>
-      <c r="AN25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AE26"/>
-      <c r="AH26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AB27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AH27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AC28" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="7">
-        <v>2</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AN28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AC29" s="7">
-        <v>2</v>
-      </c>
-      <c r="AD29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AN29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AC30" s="7">
-        <v>2</v>
-      </c>
-      <c r="AD30" s="7">
-        <v>2</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AN31" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="23:42" x14ac:dyDescent="0.4">
-      <c r="AN32" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="40:41" x14ac:dyDescent="0.4">
-      <c r="AN33" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="40:41" x14ac:dyDescent="0.4">
-      <c r="AN34" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="40:41" x14ac:dyDescent="0.4">
-      <c r="AN35" s="7"/>
-    </row>
-    <row r="36" spans="40:41" x14ac:dyDescent="0.4">
-      <c r="AN36" s="7"/>
+      <c r="AD24" s="118">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+    </row>
+    <row r="25" spans="26:53" x14ac:dyDescent="0.7">
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+    </row>
+    <row r="26" spans="26:53" x14ac:dyDescent="0.7">
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+    </row>
+    <row r="27" spans="26:53" x14ac:dyDescent="0.7">
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+    </row>
+    <row r="28" spans="26:53" x14ac:dyDescent="0.7">
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+    </row>
+    <row r="29" spans="26:53" x14ac:dyDescent="0.7">
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+    </row>
+    <row r="30" spans="26:53" x14ac:dyDescent="0.7">
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+    </row>
+    <row r="31" spans="26:53" x14ac:dyDescent="0.7">
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+    </row>
+    <row r="32" spans="26:53" x14ac:dyDescent="0.7">
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+    </row>
+    <row r="33" spans="51:52" x14ac:dyDescent="0.7">
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+    </row>
+    <row r="34" spans="51:52" x14ac:dyDescent="0.7">
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+    </row>
+    <row r="35" spans="51:52" x14ac:dyDescent="0.7">
+      <c r="AY35" s="7"/>
+      <c r="AZ35" s="7"/>
+    </row>
+    <row r="36" spans="51:52" x14ac:dyDescent="0.7">
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="7"/>
+    </row>
+    <row r="37" spans="51:52" x14ac:dyDescent="0.7">
+      <c r="AY37" s="7"/>
+      <c r="AZ37" s="7"/>
+    </row>
+    <row r="38" spans="51:52" x14ac:dyDescent="0.7">
+      <c r="AY38" s="7"/>
+      <c r="AZ38" s="7"/>
+    </row>
+    <row r="39" spans="51:52" x14ac:dyDescent="0.7">
+      <c r="AY39" s="7"/>
+      <c r="AZ39" s="7"/>
+    </row>
+    <row r="40" spans="51:52" x14ac:dyDescent="0.7">
+      <c r="AY40" s="7"/>
+      <c r="AZ40" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AB5:AD5"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="K3 B11 B8 B5">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="B11 K3 B8 B5">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3988,8 +4661,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O97:U1048576 S35:U96 O40:R41 O32:R37 O24:R28 I35:K1048576 D35:F1048576 S3:U3">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="O97:AD1048576 S35:AD96 O40:R41 O32:R37 O24:R28 I35:K1048576 D35:F1048576 S3:AD3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3998,7 +4671,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AQ13">
+  <conditionalFormatting sqref="AT5:BB12 BB13 AT19:BA19">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AP13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4018,7 +4699,7 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
@@ -4027,7 +4708,7 @@
     <col min="11" max="14" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4053,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4079,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4105,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.7">
       <c r="F4">
         <v>0</v>
       </c>
@@ -4116,7 +4797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D5">
         <v>0</v>
       </c>
@@ -4148,7 +4829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D6">
         <v>0</v>
       </c>
@@ -4182,7 +4863,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D7">
         <v>2</v>
       </c>
@@ -4214,7 +4895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D8">
         <v>0</v>
       </c>
@@ -4248,7 +4929,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D9">
         <v>1</v>
       </c>
@@ -4280,7 +4961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.7">
       <c r="D10">
         <v>1</v>
       </c>
@@ -4314,12 +4995,12 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.7">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.7">
       <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
@@ -4336,7 +5017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.7">
       <c r="J13" s="3" t="s">
         <v>23</v>
       </c>
@@ -4353,7 +5034,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.7">
       <c r="J14" s="3" t="s">
         <v>23</v>
       </c>
@@ -4370,7 +5051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.7">
       <c r="J15" s="3" t="s">
         <v>23</v>
       </c>
@@ -4387,7 +5068,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.7">
       <c r="J16" s="3" t="s">
         <v>23</v>
       </c>
@@ -4404,7 +5085,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J17" s="3" t="s">
         <v>23</v>
       </c>
@@ -4421,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J18" s="3" t="s">
         <v>78</v>
       </c>
@@ -4438,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J19" s="3" t="s">
         <v>78</v>
       </c>
@@ -4455,7 +5136,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J20" s="3" t="s">
         <v>78</v>
       </c>
@@ -4472,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J21" s="3" t="s">
         <v>78</v>
       </c>
@@ -4489,7 +5170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J24" s="3" t="s">
         <v>43</v>
       </c>
@@ -4506,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J25" s="3" t="s">
         <v>43</v>
       </c>
@@ -4523,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J26" s="3" t="s">
         <v>43</v>
       </c>
@@ -4540,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="9:14" x14ac:dyDescent="0.7">
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
         <v>43</v>
@@ -4558,7 +5239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J28" s="3" t="s">
         <v>43</v>
       </c>
@@ -4575,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J29" s="3" t="s">
         <v>43</v>
       </c>
@@ -4592,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J31" s="3" t="s">
         <v>58</v>
       </c>
@@ -4609,7 +5290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="9:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="9:14" x14ac:dyDescent="0.7">
       <c r="J32" s="3" t="s">
         <v>58</v>
       </c>
@@ -4626,7 +5307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="9:15" x14ac:dyDescent="0.7">
       <c r="J33" s="3" t="s">
         <v>58</v>
       </c>
@@ -4643,7 +5324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="9:15" x14ac:dyDescent="0.7">
       <c r="J35" s="3" t="s">
         <v>68</v>
       </c>
@@ -4660,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="9:15" x14ac:dyDescent="0.7">
       <c r="J36" s="3" t="s">
         <v>68</v>
       </c>
@@ -4677,7 +5358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:15" x14ac:dyDescent="0.7">
       <c r="J37" s="3" t="s">
         <v>68</v>
       </c>
@@ -4694,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.7">
       <c r="J38" s="3" t="s">
         <v>68</v>
       </c>
@@ -4711,10 +5392,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="9:15" x14ac:dyDescent="0.7">
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="9:15" x14ac:dyDescent="0.7">
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
         <v>88</v>
@@ -4732,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="9:15" x14ac:dyDescent="0.7">
       <c r="J41" s="3" t="s">
         <v>88</v>
       </c>
@@ -4750,7 +5431,7 @@
       </c>
       <c r="O41" s="4"/>
     </row>
-    <row r="43" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="9:15" x14ac:dyDescent="0.7">
       <c r="J43" s="3" t="s">
         <v>93</v>
       </c>
@@ -4781,7 +5462,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="3" max="3" width="2.875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="2.5" bestFit="1" customWidth="1"/>
@@ -4795,7 +5476,7 @@
     <col min="24" max="24" width="2.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.7">
       <c r="D2" t="s">
         <v>109</v>
       </c>
@@ -4806,7 +5487,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C3" s="10" t="s">
         <v>97</v>
       </c>
@@ -4853,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C4" s="10" t="s">
         <v>97</v>
       </c>
@@ -4900,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C5" s="10" t="s">
         <v>97</v>
       </c>
@@ -4947,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C6" s="9" t="s">
         <v>103</v>
       </c>
@@ -4994,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -5044,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C8" s="10" t="s">
         <v>97</v>
       </c>
@@ -5091,7 +5772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C9" s="11" t="s">
         <v>107</v>
       </c>
@@ -5138,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C10" s="9" t="s">
         <v>103</v>
       </c>
@@ -5185,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C11" s="10" t="s">
         <v>105</v>
       </c>
@@ -5232,8 +5913,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C13" s="10" t="s">
         <v>102</v>
       </c>
@@ -5280,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C14" s="10" t="s">
         <v>102</v>
       </c>
@@ -5327,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C15" s="10" t="s">
         <v>102</v>
       </c>
@@ -5374,7 +6055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B16" t="s">
         <v>114</v>
       </c>
@@ -5424,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C17" s="10" t="s">
         <v>102</v>
       </c>
@@ -5471,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C18" s="10" t="s">
         <v>102</v>
       </c>
@@ -5518,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C19" s="11" t="s">
         <v>106</v>
       </c>
@@ -5565,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C20" s="9" t="s">
         <v>106</v>
       </c>
@@ -5612,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C21" s="10" t="s">
         <v>102</v>
       </c>
@@ -5659,8 +6340,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C23" s="10" t="s">
         <v>102</v>
       </c>
@@ -5707,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C24" s="10" t="s">
         <v>102</v>
       </c>
@@ -5754,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C25" s="10" t="s">
         <v>102</v>
       </c>
@@ -5801,7 +6482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B26" t="s">
         <v>113</v>
       </c>
@@ -5851,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C27" s="10" t="s">
         <v>102</v>
       </c>
@@ -5898,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C28" s="10" t="s">
         <v>102</v>
       </c>
@@ -5945,7 +6626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C29" s="11" t="s">
         <v>106</v>
       </c>
@@ -5992,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C30" s="9" t="s">
         <v>106</v>
       </c>
@@ -6039,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.7">
       <c r="C31" s="10" t="s">
         <v>102</v>
       </c>
@@ -6110,7 +6791,7 @@
       <selection activeCell="B11" sqref="B11:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="3" width="2.5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -6129,7 +6810,7 @@
     <col min="40" max="48" width="4.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:48" x14ac:dyDescent="0.7">
       <c r="G2" t="s">
         <v>97</v>
       </c>
@@ -6140,7 +6821,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:48" x14ac:dyDescent="0.7">
       <c r="D3">
         <v>0</v>
       </c>
@@ -6160,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B4">
         <v>0</v>
       </c>
@@ -6186,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B5">
         <v>0</v>
       </c>
@@ -6209,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B6">
         <v>2</v>
       </c>
@@ -6238,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B7">
         <v>0</v>
       </c>
@@ -6267,7 +6948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B8">
         <v>1</v>
       </c>
@@ -6293,7 +6974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B9">
         <v>1</v>
       </c>
@@ -6319,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.7">
       <c r="H10">
         <v>1</v>
       </c>
@@ -6330,7 +7011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B11">
         <v>0</v>
       </c>
@@ -6353,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B12">
         <v>0</v>
       </c>
@@ -6370,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B13">
         <v>0</v>
       </c>
@@ -6445,7 +7126,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B14">
         <v>1</v>
       </c>
@@ -6514,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B15">
         <v>1</v>
       </c>
@@ -6590,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B16">
         <v>1</v>
       </c>
@@ -6659,7 +7340,7 @@
       </c>
       <c r="AV16" s="6"/>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B17">
         <v>2</v>
       </c>
@@ -6735,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B18">
         <v>2</v>
       </c>
@@ -6822,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.7">
       <c r="B19">
         <v>2</v>
       </c>
@@ -6898,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N20" s="17">
         <v>0</v>
       </c>
@@ -6952,7 +7633,7 @@
       <c r="AU20" s="6"/>
       <c r="AV20" s="6"/>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N21" s="17">
         <v>0</v>
       </c>
@@ -7013,7 +7694,7 @@
       <c r="AU21" s="6"/>
       <c r="AV21" s="6"/>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N22" s="17">
         <v>0</v>
       </c>
@@ -7067,7 +7748,7 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="6"/>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N23" s="17">
         <v>0</v>
       </c>
@@ -7135,7 +7816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N24" s="17">
         <v>0</v>
       </c>
@@ -7196,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N25" s="17">
         <v>0</v>
       </c>
@@ -7268,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N26" s="17">
         <v>0</v>
       </c>
@@ -7351,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N27" s="17">
         <v>0</v>
       </c>
@@ -7423,7 +8104,7 @@
       </c>
       <c r="AV27" s="6"/>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N28" s="17">
         <v>0</v>
       </c>
@@ -7484,7 +8165,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N29" s="17">
         <v>0</v>
       </c>
@@ -7552,7 +8233,7 @@
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N30" s="17">
         <v>0</v>
       </c>
@@ -7613,7 +8294,7 @@
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N31" s="17">
         <v>0</v>
       </c>
@@ -7667,7 +8348,7 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.7">
       <c r="N32" s="17">
         <v>0</v>
       </c>
@@ -7729,7 +8410,7 @@
       </c>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="33" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N33" s="17">
         <v>0</v>
       </c>
@@ -7801,7 +8482,7 @@
       </c>
       <c r="AV33" s="6"/>
     </row>
-    <row r="34" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="34" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N34" s="17">
         <v>0</v>
       </c>
@@ -7862,7 +8543,7 @@
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
     </row>
-    <row r="35" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="35" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N35" s="17">
         <v>0</v>
       </c>
@@ -7916,7 +8597,7 @@
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
     </row>
-    <row r="36" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="36" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N36" s="17">
         <v>0</v>
       </c>
@@ -7977,7 +8658,7 @@
       <c r="AU36" s="6"/>
       <c r="AV36" s="6"/>
     </row>
-    <row r="37" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="37" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N37" s="17">
         <v>0</v>
       </c>
@@ -8031,7 +8712,7 @@
       <c r="AU37" s="6"/>
       <c r="AV37" s="6"/>
     </row>
-    <row r="38" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="38" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N38" s="17">
         <v>1</v>
       </c>
@@ -8099,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="39" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N39" s="17">
         <v>1</v>
       </c>
@@ -8182,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="40" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N40" s="17">
         <v>1</v>
       </c>
@@ -8250,7 +8931,7 @@
       </c>
       <c r="AV40" s="6"/>
     </row>
-    <row r="41" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="41" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N41" s="17">
         <v>1</v>
       </c>
@@ -8307,7 +8988,7 @@
       <c r="AU41" s="6"/>
       <c r="AV41" s="6"/>
     </row>
-    <row r="42" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="42" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N42" s="17">
         <v>1</v>
       </c>
@@ -8371,7 +9052,7 @@
       <c r="AU42" s="6"/>
       <c r="AV42" s="6"/>
     </row>
-    <row r="43" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="43" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N43" s="17">
         <v>1</v>
       </c>
@@ -8428,7 +9109,7 @@
       <c r="AU43" s="6"/>
       <c r="AV43" s="6"/>
     </row>
-    <row r="44" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="44" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N44" s="17">
         <v>1</v>
       </c>
@@ -8526,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="45" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N45" s="17">
         <v>1</v>
       </c>
@@ -8597,7 +9278,7 @@
       <c r="AU45" s="16"/>
       <c r="AV45" s="16"/>
     </row>
-    <row r="46" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="46" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N46" s="17">
         <v>1</v>
       </c>
@@ -8661,7 +9342,7 @@
       <c r="AU46" s="16"/>
       <c r="AV46" s="6"/>
     </row>
-    <row r="47" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="47" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N47" s="17">
         <v>1</v>
       </c>
@@ -8732,7 +9413,7 @@
       <c r="AU47" s="16"/>
       <c r="AV47" s="16"/>
     </row>
-    <row r="48" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="48" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N48" s="17">
         <v>1</v>
       </c>
@@ -8796,7 +9477,7 @@
       <c r="AU48" s="16"/>
       <c r="AV48" s="16"/>
     </row>
-    <row r="49" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="49" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N49" s="17">
         <v>1</v>
       </c>
@@ -8858,7 +9539,7 @@
       <c r="AU49" s="6"/>
       <c r="AV49" s="16"/>
     </row>
-    <row r="50" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="50" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N50" s="17">
         <v>1</v>
       </c>
@@ -8915,7 +9596,7 @@
       <c r="AU50" s="6"/>
       <c r="AV50" s="6"/>
     </row>
-    <row r="51" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="51" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N51" s="17">
         <v>1</v>
       </c>
@@ -8979,7 +9660,7 @@
       <c r="AU51" s="6"/>
       <c r="AV51" s="6"/>
     </row>
-    <row r="52" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="52" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N52" s="17">
         <v>1</v>
       </c>
@@ -9036,7 +9717,7 @@
       <c r="AU52" s="6"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="53" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N53" s="17">
         <v>2</v>
       </c>
@@ -9089,7 +9770,7 @@
       <c r="AU53" s="6"/>
       <c r="AV53" s="6"/>
     </row>
-    <row r="54" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="54" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N54" s="17">
         <v>2</v>
       </c>
@@ -9147,7 +9828,7 @@
       <c r="AU54" s="6"/>
       <c r="AV54" s="6"/>
     </row>
-    <row r="55" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="55" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N55" s="17">
         <v>2</v>
       </c>
@@ -9200,7 +9881,7 @@
       <c r="AU55" s="6"/>
       <c r="AV55" s="6"/>
     </row>
-    <row r="56" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="56" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N56" s="17">
         <v>2</v>
       </c>
@@ -9263,7 +9944,7 @@
       <c r="AU56" s="6"/>
       <c r="AV56" s="6"/>
     </row>
-    <row r="57" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="57" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N57" s="17">
         <v>2</v>
       </c>
@@ -9321,7 +10002,7 @@
       <c r="AU57" s="6"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" spans="14:48" x14ac:dyDescent="0.4">
+    <row r="58" spans="14:48" x14ac:dyDescent="0.7">
       <c r="N58" s="17">
         <v>2</v>
       </c>
@@ -9387,9 +10068,9 @@
       <selection activeCell="C2" sqref="C2:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -9425,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9461,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -9497,7 +10178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -9533,7 +10214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -9569,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -9605,7 +10286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -9641,7 +10322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -9677,7 +10358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -9713,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -9749,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -9785,7 +10466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -9821,7 +10502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9857,7 +10538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -9893,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -9929,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -9965,7 +10646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -10001,7 +10682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10037,7 +10718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C20" t="s">
         <v>23</v>
       </c>
@@ -10073,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -10109,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -10145,7 +10826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C23" t="s">
         <v>23</v>
       </c>
@@ -10181,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -10217,7 +10898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -10253,7 +10934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -10289,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -10325,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -10361,7 +11042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C29" t="s">
         <v>23</v>
       </c>
@@ -10397,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -10433,7 +11114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C31" t="s">
         <v>23</v>
       </c>
@@ -10469,7 +11150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -10505,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C33" t="s">
         <v>23</v>
       </c>
@@ -10541,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C34" t="s">
         <v>23</v>
       </c>
@@ -10577,7 +11258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C35" t="s">
         <v>23</v>
       </c>
@@ -10613,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C36" t="s">
         <v>23</v>
       </c>
@@ -10649,7 +11330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C37" t="s">
         <v>23</v>
       </c>
@@ -10685,7 +11366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C38" t="s">
         <v>43</v>
       </c>
@@ -10721,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C39" t="s">
         <v>45</v>
       </c>
@@ -10757,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C40" t="s">
         <v>43</v>
       </c>
@@ -10793,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C41" t="s">
         <v>43</v>
       </c>
@@ -10829,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C42" t="s">
         <v>43</v>
       </c>
@@ -10865,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C43" t="s">
         <v>43</v>
       </c>
@@ -10901,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C44" t="s">
         <v>43</v>
       </c>
@@ -10937,7 +11618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C45" t="s">
         <v>43</v>
       </c>
@@ -10973,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C46" t="s">
         <v>43</v>
       </c>
@@ -11009,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C47" t="s">
         <v>43</v>
       </c>
@@ -11045,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -11081,7 +11762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -11117,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C50" t="s">
         <v>43</v>
       </c>
@@ -11153,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C51" t="s">
         <v>58</v>
       </c>
@@ -11189,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C52" t="s">
         <v>58</v>
       </c>
@@ -11225,7 +11906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C53" t="s">
         <v>58</v>
       </c>
@@ -11261,7 +11942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C54" t="s">
         <v>58</v>
       </c>
@@ -11297,7 +11978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C55" t="s">
         <v>58</v>
       </c>
@@ -11333,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C56" t="s">
         <v>58</v>
       </c>
@@ -11369,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -11405,7 +12086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -11441,7 +12122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -11477,7 +12158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C60" t="s">
         <v>68</v>
       </c>
@@ -11513,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C61" t="s">
         <v>68</v>
       </c>
@@ -11549,7 +12230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C62" t="s">
         <v>68</v>
       </c>
@@ -11585,7 +12266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C63" t="s">
         <v>68</v>
       </c>
@@ -11621,7 +12302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C64" t="s">
         <v>68</v>
       </c>
@@ -11657,7 +12338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C65" t="s">
         <v>68</v>
       </c>
@@ -11693,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C66" t="s">
         <v>68</v>
       </c>
@@ -11729,7 +12410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C67" t="s">
         <v>68</v>
       </c>
@@ -11765,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C68" t="s">
         <v>68</v>
       </c>
@@ -11801,7 +12482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C69" t="s">
         <v>78</v>
       </c>
@@ -11837,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C70" t="s">
         <v>78</v>
       </c>
@@ -11873,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C71" t="s">
         <v>78</v>
       </c>
@@ -11909,7 +12590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C72" t="s">
         <v>78</v>
       </c>
@@ -11945,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C73" t="s">
         <v>78</v>
       </c>
@@ -11981,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C74" t="s">
         <v>78</v>
       </c>
@@ -12017,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C75" t="s">
         <v>78</v>
       </c>
@@ -12053,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C76" t="s">
         <v>78</v>
       </c>
@@ -12089,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C77" t="s">
         <v>78</v>
       </c>
@@ -12125,7 +12806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C78" t="s">
         <v>88</v>
       </c>
@@ -12161,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C79" t="s">
         <v>88</v>
       </c>
@@ -12197,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C80" t="s">
         <v>88</v>
       </c>
@@ -12233,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C81" t="s">
         <v>88</v>
       </c>
@@ -12269,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C82" t="s">
         <v>93</v>
       </c>
@@ -12319,12 +13000,12 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="3" max="12" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.7">
       <c r="D3" s="14" t="s">
         <v>0</v>
       </c>
@@ -12353,7 +13034,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
@@ -12367,7 +13048,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
@@ -12381,7 +13062,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C6" s="14" t="s">
         <v>116</v>
       </c>
@@ -12395,7 +13076,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C7" s="15" t="s">
         <v>115</v>
       </c>
@@ -12409,7 +13090,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
@@ -12423,7 +13104,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C9" s="14" t="s">
         <v>117</v>
       </c>
@@ -12437,7 +13118,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C10" s="14" t="s">
         <v>118</v>
       </c>
@@ -12451,7 +13132,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C11" s="14" t="s">
         <v>119</v>
       </c>
@@ -12465,7 +13146,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.7">
       <c r="C12" s="14" t="s">
         <v>120</v>
       </c>

--- a/どうぶつのもり.xlsx
+++ b/どうぶつのもり.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamca\source\katuneko\MISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF9CBAD-4D78-4EA4-89CD-0BE67AFBC4C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2186DBAA-DA44-444A-86DA-675D1615AF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1163" yWindow="-98" windowWidth="23235" windowHeight="16395" xr2:uid="{769DC504-F119-4236-9B7B-48AA3EFD8C09}"/>
+    <workbookView xWindow="1605" yWindow="120" windowWidth="12383" windowHeight="12217" xr2:uid="{769DC504-F119-4236-9B7B-48AA3EFD8C09}"/>
+    <workbookView xWindow="1163" yWindow="-98" windowWidth="23235" windowHeight="16395" activeTab="1" xr2:uid="{878A11FF-3DE5-440A-8670-6AA1F6125523}"/>
   </bookViews>
   <sheets>
     <sheet name="順方向" sheetId="5" r:id="rId1"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="136">
   <si>
     <t>00</t>
     <phoneticPr fontId="2"/>
@@ -498,13 +499,90 @@
     <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端→端は0%</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端→真ん中は端,端同士なら100%、端, 真ん中なら50%</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真ん中→端 真ん中同士なら25%, 端,真ん中なら50%</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="185" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -648,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1141,13 +1219,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1510,6 +1597,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1854,7 +2031,10 @@
   <dimension ref="B2:AW27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1880,7 +2060,9 @@
     <col min="37" max="37" width="3.875" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="5.125" hidden="1" customWidth="1"/>
     <col min="39" max="40" width="2.6875" hidden="1" customWidth="1"/>
-    <col min="41" max="49" width="5.6875" customWidth="1"/>
+    <col min="41" max="44" width="5.6875" customWidth="1"/>
+    <col min="45" max="45" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="5.6875" customWidth="1"/>
     <col min="50" max="50" width="2.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1919,11 +2101,11 @@
     <row r="4" spans="2:49" ht="22.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="P4">
         <f>MAX(P5:P13)-1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q4">
         <f>MAX(Q5:Q13)-1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
@@ -1962,12 +2144,14 @@
       <c r="F5" s="59"/>
       <c r="G5" s="31"/>
       <c r="H5" s="97"/>
-      <c r="I5" s="102"/>
+      <c r="I5" s="102">
+        <v>1</v>
+      </c>
       <c r="J5" s="69"/>
       <c r="K5" s="32"/>
       <c r="N5">
         <f>_xlfn.IFNA(MATCH(1,C5:K5,0),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O5" t="e">
         <f>MATCH(1,C5:C13)</f>
@@ -1975,7 +2159,7 @@
       </c>
       <c r="P5">
         <f>_xlfn.IFNA(N5,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <f>_xlfn.IFNA(O5,0)</f>
@@ -2009,39 +2193,39 @@
       <c r="AN5" s="8">
         <v>1</v>
       </c>
-      <c r="AO5" s="71" cm="1">
+      <c r="AO5" s="122" cm="1">
         <f t="array" ref="AO5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="72" cm="1">
+      <c r="AP5" s="123" cm="1">
         <f t="array" ref="AP5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="73" cm="1">
+      <c r="AQ5" s="124" cm="1">
         <f t="array" ref="AQ5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="74" cm="1">
+      <c r="AR5" s="125" cm="1">
         <f t="array" ref="AR5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="75" cm="1">
+      <c r="AS5" s="126" cm="1">
         <f t="array" ref="AS5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="76" cm="1">
+      <c r="AT5" s="127" cm="1">
         <f t="array" ref="AT5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="74" cm="1">
+      <c r="AU5" s="125" cm="1">
         <f t="array" ref="AU5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV5" s="75" cm="1">
+      <c r="AV5" s="126" cm="1">
         <f t="array" ref="AV5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW5" s="76" cm="1">
+      <c r="AW5" s="127" cm="1">
         <f t="array" ref="AW5">INDEX($AH$13:$AJ$13,1,$AM5)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN5)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
@@ -2060,9 +2244,9 @@
         <f t="shared" ref="N6:N13" si="0">MATCH(1,C6:K6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="e">
         <f>MATCH(1,D5:D13)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="P6">
         <f t="shared" ref="P6:Q13" si="1">_xlfn.IFNA(N6,0)</f>
@@ -2070,11 +2254,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>ROUNDDOWN(P4/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>95</v>
@@ -2100,48 +2284,46 @@
       <c r="AN6" s="8">
         <v>2</v>
       </c>
-      <c r="AO6" s="77" cm="1">
+      <c r="AO6" s="128" cm="1">
         <f t="array" ref="AO6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AP6" s="78" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="129" cm="1">
         <f t="array" ref="AP6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AQ6" s="79" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="130" cm="1">
         <f t="array" ref="AQ6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="80" cm="1">
+      <c r="AR6" s="131" cm="1">
         <f t="array" ref="AR6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
-        <v>0</v>
-      </c>
-      <c r="AS6" s="81" cm="1">
+        <v>0.5</v>
+      </c>
+      <c r="AS6" s="132" cm="1">
         <f t="array" ref="AS6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
-        <v>0</v>
-      </c>
-      <c r="AT6" s="82" cm="1">
+        <v>0.5</v>
+      </c>
+      <c r="AT6" s="133" cm="1">
         <f t="array" ref="AT6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU6" s="80" cm="1">
+      <c r="AU6" s="131" cm="1">
         <f t="array" ref="AU6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV6" s="81" cm="1">
+      <c r="AV6" s="132" cm="1">
         <f t="array" ref="AV6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW6" s="82" cm="1">
+      <c r="AW6" s="133" cm="1">
         <f t="array" ref="AW6">INDEX($AH$13:$AJ$13,1,$AM6)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN6)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:49" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C7" s="99"/>
-      <c r="D7" s="103">
-        <v>1</v>
-      </c>
+      <c r="D7" s="103"/>
       <c r="E7" s="67"/>
       <c r="F7" s="61"/>
       <c r="G7" s="43"/>
@@ -2149,9 +2331,9 @@
       <c r="I7" s="54"/>
       <c r="J7" s="43"/>
       <c r="K7" s="44"/>
-      <c r="N7">
+      <c r="N7" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="O7" t="e">
         <f>MATCH(1,E5:E13)</f>
@@ -2159,7 +2341,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -2167,7 +2349,7 @@
       </c>
       <c r="R7">
         <f>MOD(Q4,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>95</v>
@@ -2193,39 +2375,39 @@
       <c r="AN7" s="8">
         <v>3</v>
       </c>
-      <c r="AO7" s="83" cm="1">
+      <c r="AO7" s="134" cm="1">
         <f t="array" ref="AO7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP7" s="84" cm="1">
+      <c r="AP7" s="135" cm="1">
         <f t="array" ref="AP7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="85" cm="1">
+      <c r="AQ7" s="136" cm="1">
         <f t="array" ref="AQ7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR7" s="86" cm="1">
+      <c r="AR7" s="137" cm="1">
         <f t="array" ref="AR7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS7" s="87" cm="1">
+      <c r="AS7" s="138" cm="1">
         <f t="array" ref="AS7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="88" cm="1">
+      <c r="AT7" s="139" cm="1">
         <f t="array" ref="AT7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="86" cm="1">
+      <c r="AU7" s="137" cm="1">
         <f t="array" ref="AU7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV7" s="87" cm="1">
+      <c r="AV7" s="138" cm="1">
         <f t="array" ref="AV7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW7" s="88" cm="1">
+      <c r="AW7" s="139" cm="1">
         <f t="array" ref="AW7">INDEX($AH$13:$AJ$13,1,$AM7)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN7)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
@@ -2259,7 +2441,7 @@
       </c>
       <c r="R8">
         <f>MOD(P4,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="8">
         <v>2</v>
@@ -2267,39 +2449,39 @@
       <c r="AN8" s="8">
         <v>1</v>
       </c>
-      <c r="AO8" s="71" cm="1">
+      <c r="AO8" s="122" cm="1">
         <f t="array" ref="AO8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="72" cm="1">
+      <c r="AP8" s="123" cm="1">
         <f t="array" ref="AP8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="73" cm="1">
+      <c r="AQ8" s="124" cm="1">
         <f t="array" ref="AQ8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR8" s="71" cm="1">
+      <c r="AR8" s="122" cm="1">
         <f t="array" ref="AR8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="72" cm="1">
+      <c r="AS8" s="123" cm="1">
         <f t="array" ref="AS8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="73" cm="1">
+      <c r="AT8" s="124" cm="1">
         <f t="array" ref="AT8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="74" cm="1">
+      <c r="AU8" s="125" cm="1">
         <f t="array" ref="AU8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV8" s="75" cm="1">
+      <c r="AV8" s="126" cm="1">
         <f t="array" ref="AV8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW8" s="76" cm="1">
+      <c r="AW8" s="127" cm="1">
         <f t="array" ref="AW8">INDEX($AH$13:$AJ$13,1,$AM8)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN8)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
@@ -2336,39 +2518,39 @@
       <c r="AN9" s="8">
         <v>2</v>
       </c>
-      <c r="AO9" s="77" cm="1">
+      <c r="AO9" s="128" cm="1">
         <f t="array" ref="AO9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AP9" s="78" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="129" cm="1">
         <f t="array" ref="AP9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AQ9" s="79" cm="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="130" cm="1">
         <f t="array" ref="AQ9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR9" s="77" cm="1">
+      <c r="AR9" s="128" cm="1">
         <f t="array" ref="AR9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="78" cm="1">
+      <c r="AS9" s="129" cm="1">
         <f t="array" ref="AS9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="79" cm="1">
+      <c r="AT9" s="130" cm="1">
         <f t="array" ref="AT9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="80" cm="1">
+      <c r="AU9" s="131" cm="1">
         <f t="array" ref="AU9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="81" cm="1">
+      <c r="AV9" s="132" cm="1">
         <f t="array" ref="AV9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW9" s="82" cm="1">
+      <c r="AW9" s="133" cm="1">
         <f t="array" ref="AW9">INDEX($AH$13:$AJ$13,1,$AM9)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN9)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
@@ -2405,39 +2587,39 @@
       <c r="AN10" s="8">
         <v>3</v>
       </c>
-      <c r="AO10" s="83" cm="1">
+      <c r="AO10" s="134" cm="1">
         <f t="array" ref="AO10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="84" cm="1">
+      <c r="AP10" s="135" cm="1">
         <f t="array" ref="AP10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="85" cm="1">
+      <c r="AQ10" s="136" cm="1">
         <f t="array" ref="AQ10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR10" s="89" cm="1">
+      <c r="AR10" s="140" cm="1">
         <f t="array" ref="AR10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="84" cm="1">
+      <c r="AS10" s="135" cm="1">
         <f t="array" ref="AS10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT10" s="90" cm="1">
+      <c r="AT10" s="141" cm="1">
         <f t="array" ref="AT10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="86" cm="1">
+      <c r="AU10" s="137" cm="1">
         <f t="array" ref="AU10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV10" s="87" cm="1">
+      <c r="AV10" s="138" cm="1">
         <f t="array" ref="AV10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW10" s="88" cm="1">
+      <c r="AW10" s="139" cm="1">
         <f t="array" ref="AW10">INDEX($AH$13:$AJ$13,1,$AM10)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN10)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
@@ -2456,9 +2638,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O11" t="e">
+      <c r="O11">
         <f>MATCH(1,I5:I13)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
@@ -2466,7 +2648,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="8">
         <v>3</v>
@@ -2474,39 +2656,39 @@
       <c r="AN11" s="8">
         <v>1</v>
       </c>
-      <c r="AO11" s="91" cm="1">
+      <c r="AO11" s="142" cm="1">
         <f t="array" ref="AO11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP11" s="92" cm="1">
+      <c r="AP11" s="143" cm="1">
         <f t="array" ref="AP11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="93" cm="1">
+      <c r="AQ11" s="144" cm="1">
         <f t="array" ref="AQ11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR11" s="91" cm="1">
+      <c r="AR11" s="142" cm="1">
         <f t="array" ref="AR11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS11" s="92" cm="1">
+      <c r="AS11" s="143" cm="1">
         <f t="array" ref="AS11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="93" cm="1">
+      <c r="AT11" s="144" cm="1">
         <f t="array" ref="AT11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="71" cm="1">
+      <c r="AU11" s="122" cm="1">
         <f t="array" ref="AU11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV11" s="72" cm="1">
+      <c r="AV11" s="123" cm="1">
         <f t="array" ref="AV11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW11" s="73" cm="1">
+      <c r="AW11" s="124" cm="1">
         <f t="array" ref="AW11">INDEX($AH$13:$AJ$13,1,$AM11)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN11)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
@@ -2568,39 +2750,39 @@
       <c r="AN12" s="8">
         <v>2</v>
       </c>
-      <c r="AO12" s="77" cm="1">
+      <c r="AO12" s="128" cm="1">
         <f t="array" ref="AO12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP12" s="78" cm="1">
+      <c r="AP12" s="129" cm="1">
         <f t="array" ref="AP12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="94" cm="1">
+      <c r="AQ12" s="145" cm="1">
         <f t="array" ref="AQ12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR12" s="77" cm="1">
+      <c r="AR12" s="128" cm="1">
         <f t="array" ref="AR12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS12" s="78" cm="1">
+      <c r="AS12" s="129" cm="1">
         <f t="array" ref="AS12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="94" cm="1">
+      <c r="AT12" s="145" cm="1">
         <f t="array" ref="AT12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="77" cm="1">
+      <c r="AU12" s="128" cm="1">
         <f t="array" ref="AU12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV12" s="78" cm="1">
+      <c r="AV12" s="129" cm="1">
         <f t="array" ref="AV12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW12" s="79" cm="1">
+      <c r="AW12" s="130" cm="1">
         <f t="array" ref="AW12">INDEX($AH$13:$AJ$13,1,$AM12)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN12)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
@@ -2638,7 +2820,7 @@
       </c>
       <c r="AE13" s="25">
         <f>R15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <f>MATCH(AD13,$W$19:$W$27,0)</f>
@@ -2646,15 +2828,15 @@
       </c>
       <c r="AG13">
         <f>MATCH(AE13,$X$19:$X$27,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="2" cm="1">
         <f t="array" ref="AH13">INDEX(Y$19:Y$27,$AF13+($AG13-1))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="2" cm="1">
         <f t="array" ref="AI13">INDEX(Z$19:Z$27,$AF13+($AG13-1))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="2" cm="1">
         <f t="array" ref="AJ13">INDEX(AA$19:AA$27,$AF13+($AG13-1))</f>
@@ -2667,39 +2849,39 @@
       <c r="AN13" s="8">
         <v>3</v>
       </c>
-      <c r="AO13" s="83" cm="1">
+      <c r="AO13" s="134" cm="1">
         <f t="array" ref="AO13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AO$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AO$4)</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="84" cm="1">
+      <c r="AP13" s="135" cm="1">
         <f t="array" ref="AP13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AP$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AP$4)</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="85" cm="1">
+      <c r="AQ13" s="136" cm="1">
         <f t="array" ref="AQ13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AQ$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AQ$4)</f>
         <v>0</v>
       </c>
-      <c r="AR13" s="83" cm="1">
+      <c r="AR13" s="134" cm="1">
         <f t="array" ref="AR13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AR$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AR$4)</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="84" cm="1">
+      <c r="AS13" s="135" cm="1">
         <f t="array" ref="AS13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AS$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AS$4)</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="95" cm="1">
+      <c r="AT13" s="146" cm="1">
         <f t="array" ref="AT13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AT$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AT$4)</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="96" cm="1">
+      <c r="AU13" s="147" cm="1">
         <f t="array" ref="AU13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AU$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AU$4)</f>
         <v>0</v>
       </c>
-      <c r="AV13" s="84" cm="1">
+      <c r="AV13" s="135" cm="1">
         <f t="array" ref="AV13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AV$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AV$4)</f>
         <v>0</v>
       </c>
-      <c r="AW13" s="90" cm="1">
+      <c r="AW13" s="141" cm="1">
         <f t="array" ref="AW13">INDEX($AH$13:$AJ$13,1,$AM13)*INDEX($AH$14:$AJ$14,1,AW$3)*INDEX($AH$15:$AJ$15,1,$AN13)*INDEX($AH$16:$AJ$16,1,AW$4)</f>
         <v>0</v>
       </c>
@@ -2708,11 +2890,11 @@
       <c r="I14" s="106"/>
       <c r="P14">
         <f>MAX(P15:P23)-1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f>MAX(Q15:Q23)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W14" t="s">
         <v>124</v>
@@ -2725,7 +2907,7 @@
       </c>
       <c r="AD14" s="24">
         <f>R6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="25">
         <f>R16</f>
@@ -2733,7 +2915,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ref="AF14:AF16" si="2">MATCH(AD14,$W$19:$W$27,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG14">
         <f t="shared" ref="AG14:AG16" si="3">MATCH(AE14,$X$19:$X$27,0)</f>
@@ -2741,11 +2923,11 @@
       </c>
       <c r="AH14" s="2" cm="1">
         <f t="array" ref="AH14">INDEX(Y$19:Y$27,$AF14+($AG14-1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="2" cm="1">
         <f t="array" ref="AI14">INDEX(Z$19:Z$27,$AF14+($AG14-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="2" cm="1">
         <f t="array" ref="AJ14">INDEX(AA$19:AA$27,$AF14+($AG14-1))</f>
@@ -2766,9 +2948,9 @@
         <f>_xlfn.IFNA(MATCH(1,C15:K15,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="e">
         <f>MATCH(1,C15:C23)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="P15">
         <f>_xlfn.IFNA(N15,0)</f>
@@ -2776,11 +2958,11 @@
       </c>
       <c r="Q15">
         <f>_xlfn.IFNA(O15,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <f>ROUNDDOWN(Q14/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="s">
         <v>122</v>
@@ -2793,19 +2975,19 @@
       </c>
       <c r="AD15" s="24">
         <f>R7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="25">
         <f>R17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="2" cm="1">
         <f t="array" ref="AH15">INDEX(Y$19:Y$27,$AF15+($AG15-1))</f>
@@ -2834,9 +3016,9 @@
         <f t="shared" ref="N16:N23" si="4">MATCH(1,C16:K16,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" t="e">
+      <c r="O16">
         <f>MATCH(1,D15:D23)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <f t="shared" ref="P16:P23" si="5">_xlfn.IFNA(N16,0)</f>
@@ -2844,7 +3026,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:Q23" si="6">_xlfn.IFNA(O16,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <f>ROUNDDOWN(P14/3,0)</f>
@@ -2864,19 +3046,19 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="26">
         <f>R8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="27">
         <f>R18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH16" s="2" cm="1">
         <f t="array" ref="AH16">INDEX(Y$19:Y$27,$AF16+($AG16-1))</f>
@@ -2893,7 +3075,9 @@
     </row>
     <row r="17" spans="2:29" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C17" s="99"/>
-      <c r="D17" s="108"/>
+      <c r="D17" s="108">
+        <v>1</v>
+      </c>
       <c r="E17" s="67"/>
       <c r="F17" s="61"/>
       <c r="G17" s="43"/>
@@ -2901,9 +3085,9 @@
       <c r="I17" s="54"/>
       <c r="J17" s="43"/>
       <c r="K17" s="44"/>
-      <c r="N17" t="e">
+      <c r="N17">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="O17" t="e">
         <f>MATCH(1,E15:E23)</f>
@@ -2911,7 +3095,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
@@ -2919,7 +3103,7 @@
       </c>
       <c r="R17">
         <f>MOD(Q14,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" t="s">
         <v>128</v>
@@ -2936,9 +3120,7 @@
     </row>
     <row r="18" spans="2:29" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B18" s="98"/>
-      <c r="C18" s="109">
-        <v>1</v>
-      </c>
+      <c r="C18" s="109"/>
       <c r="D18" s="56"/>
       <c r="E18" s="50"/>
       <c r="F18" s="62"/>
@@ -2947,9 +3129,9 @@
       <c r="I18" s="55"/>
       <c r="J18" s="45"/>
       <c r="K18" s="46"/>
-      <c r="N18">
+      <c r="N18" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="O18" t="e">
         <f>MATCH(1,F15:F23)</f>
@@ -2957,7 +3139,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <f t="shared" si="6"/>
@@ -2965,7 +3147,7 @@
       </c>
       <c r="R18">
         <f>MOD(P14,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -3306,7 +3488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O97:U1048576 S35:U96 O40:R41 O32:R37 O24:R28 I35:K1048576 D35:F1048576 S3:U3">
+  <conditionalFormatting sqref="O97:U1048576 S35:U96 O40:R41 O32:R37 O24:R28 I36:K1048576 D36:F1048576 S3:U3">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3331,10 +3513,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134F5AD1-EAF0-4554-8151-3F440D356A49}">
-  <dimension ref="B2:BA40"/>
+  <dimension ref="B2:BA68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="AC27" sqref="AC27"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -3342,15 +3527,13 @@
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3.125" customWidth="1"/>
     <col min="12" max="13" width="4.8125" customWidth="1"/>
-    <col min="14" max="14" width="4.8125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="5.5" hidden="1" customWidth="1"/>
     <col min="16" max="18" width="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="3.5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="0.1875" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="5.5" hidden="1" customWidth="1"/>
     <col min="22" max="24" width="2" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="3.5" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="3.8125" style="7" customWidth="1"/>
+    <col min="26" max="27" width="2.625" style="7" customWidth="1"/>
     <col min="28" max="30" width="6.5" style="7" customWidth="1"/>
     <col min="31" max="31" width="4.875" customWidth="1"/>
     <col min="32" max="33" width="4.875" hidden="1" customWidth="1"/>
@@ -3364,8 +3547,15 @@
     <col min="55" max="55" width="2.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:52" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="2:52" hidden="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:52" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:52" ht="25.9" hidden="1" x14ac:dyDescent="0.7">
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8">
@@ -3396,22 +3586,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:52" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:52" ht="25.9" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="P4">
         <f>MAX(P5:P13)-1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q4">
         <f>MAX(Q5:Q13)-1</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V4">
         <f>MAX(V5:V13)-1</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <f>MAX(W5:W13)-1</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -3444,30 +3634,26 @@
       </c>
     </row>
     <row r="5" spans="2:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C5" s="29">
-        <v>0</v>
-      </c>
+      <c r="C5" s="29"/>
       <c r="D5" s="30"/>
       <c r="E5" s="47"/>
-      <c r="F5" s="59">
-        <v>1</v>
-      </c>
+      <c r="F5" s="59"/>
       <c r="G5" s="31"/>
       <c r="H5" s="97"/>
       <c r="I5" s="107"/>
       <c r="J5" s="69"/>
       <c r="K5" s="32"/>
-      <c r="N5">
-        <f>MATCH(1,$C5:$K5,0)</f>
-        <v>4</v>
+      <c r="N5" t="e">
+        <f>MATCH($N$2,$C5:$K5,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="O5" t="e">
-        <f>MATCH(1,C$5:C$13,0)</f>
+        <f>MATCH($N$2,C$5:C$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P5">
         <f>_xlfn.IFNA(N5,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <f>_xlfn.IFNA(O5,0)</f>
@@ -3475,27 +3661,27 @@
       </c>
       <c r="R5">
         <f>ROUNDDOWN(Q4/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>MATCH(0,$C5:$K5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <f>MATCH(0,C$5:C$13,0)</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="T5" t="e">
+        <f>MATCH($T$2,$C5:$K5,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U5" t="e">
+        <f>MATCH($T$2,C$5:C$13,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="V5">
         <f>_xlfn.IFNA(T5,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <f>_xlfn.IFNA(U5,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <f>ROUNDDOWN(W4/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="120" t="s">
         <v>129</v>
@@ -3522,11 +3708,11 @@
       </c>
       <c r="AK5" s="74" cm="1">
         <f t="array" ref="AK5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AK$4)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="75" cm="1">
         <f t="array" ref="AL5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AL$4)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="76" cm="1">
         <f t="array" ref="AM5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AM$4)</f>
@@ -3534,11 +3720,11 @@
       </c>
       <c r="AN5" s="74" cm="1">
         <f t="array" ref="AN5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AN$4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="75" cm="1">
         <f t="array" ref="AO5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AO$4)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="76" cm="1">
         <f t="array" ref="AP5">INDEX($AB$7:$AD$7,1,$AF5)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG5)*INDEX($AB$10:$AD$10,1,AP$4)</f>
@@ -3556,11 +3742,11 @@
       <c r="J6" s="20"/>
       <c r="K6" s="34"/>
       <c r="N6" t="e">
-        <f t="shared" ref="N6:N13" si="0">MATCH(1,$C6:$K6,0)</f>
+        <f t="shared" ref="N6:N13" si="0">MATCH($N$2,$C6:$K6,0)</f>
         <v>#N/A</v>
       </c>
       <c r="O6" t="e">
-        <f>MATCH(1,D$5:D$13,0)</f>
+        <f>MATCH($N$2,D$5:D$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P6">
@@ -3573,14 +3759,14 @@
       </c>
       <c r="R6">
         <f>ROUNDDOWN(P4/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="e">
-        <f t="shared" ref="T6:T13" si="2">MATCH(0,$C6:$K6,0)</f>
+        <f t="shared" ref="T6:T13" si="2">MATCH($T$2,$C6:$K6,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U6" t="e">
-        <f>MATCH(0,D$5:D$13,0)</f>
+        <f>MATCH($T$2,D$5:D$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V6">
@@ -3593,7 +3779,7 @@
       </c>
       <c r="X6">
         <f>ROUNDDOWN(V4/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="117" t="s">
         <v>103</v>
@@ -3630,11 +3816,11 @@
       </c>
       <c r="AK6" s="80" cm="1">
         <f t="array" ref="AK6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AK$4)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="81" cm="1">
         <f t="array" ref="AL6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AL$4)</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="82" cm="1">
         <f t="array" ref="AM6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AM$4)</f>
@@ -3642,11 +3828,11 @@
       </c>
       <c r="AN6" s="80" cm="1">
         <f t="array" ref="AN6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AN$4)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="81" cm="1">
         <f t="array" ref="AO6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AO$4)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="82" cm="1">
         <f t="array" ref="AP6">INDEX($AB$7:$AD$7,1,$AF6)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG6)*INDEX($AB$10:$AD$10,1,AP$4)</f>
@@ -3668,7 +3854,7 @@
         <v>#N/A</v>
       </c>
       <c r="O7" t="e">
-        <f>MATCH(1,E$5:E$13,0)</f>
+        <f>MATCH($N$2,E$5:E$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P7">
@@ -3681,14 +3867,14 @@
       </c>
       <c r="R7">
         <f>MOD(Q4,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="U7" t="e">
-        <f>MATCH(0,E$5:E$13,0)</f>
+        <f>MATCH($T$2,E$5:E$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V7">
@@ -3701,27 +3887,27 @@
       </c>
       <c r="X7">
         <f>MOD(W4,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="117">
         <f>R5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="117">
         <f>X5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="119" cm="1">
         <f t="array" ref="AB7">INDEX(AB$16:AB$24,MATCH($AA7,$AA$16:$AA$18,0)-1+MATCH($Z7,$Z$16:$Z$24,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="119" cm="1">
         <f t="array" ref="AC7">INDEX(AC$16:AC$24,MATCH($AA7,$AA$16:$AA$18,0)-1+MATCH($Z7,$Z$16:$Z$24,0))</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD7" s="119" cm="1">
         <f t="array" ref="AD7">INDEX(AD$16:AD$24,MATCH($AA7,$AA$16:$AA$18,0)-1+MATCH($Z7,$Z$16:$Z$24,0))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" s="8">
         <v>1</v>
@@ -3784,9 +3970,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O8">
-        <f>MATCH(1,F$5:F$13,0)</f>
-        <v>1</v>
+      <c r="O8" t="e">
+        <f>MATCH($N$2,F$5:F$13,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
@@ -3794,7 +3980,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f>MOD(P4,3)</f>
@@ -3804,9 +3990,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="U8" t="e">
-        <f>MATCH(0,F$5:F$13,0)</f>
-        <v>#N/A</v>
+      <c r="U8">
+        <f>MATCH($T$2,F$5:F$13,0)</f>
+        <v>6</v>
       </c>
       <c r="V8">
         <f t="shared" si="3"/>
@@ -3814,7 +4000,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X8">
         <f>MOD(V4,3)</f>
@@ -3822,11 +4008,11 @@
       </c>
       <c r="Z8" s="117">
         <f>R6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="117">
         <f>X6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="119" cm="1">
         <f t="array" ref="AB8">INDEX(AB$16:AB$24,MATCH($AA8,$AA$16:$AA$18,0)-1+MATCH($Z8,$Z$16:$Z$24,0))</f>
@@ -3834,11 +4020,11 @@
       </c>
       <c r="AC8" s="119" cm="1">
         <f t="array" ref="AC8">INDEX(AC$16:AC$24,MATCH($AA8,$AA$16:$AA$18,0)-1+MATCH($Z8,$Z$16:$Z$24,0))</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD8" s="119" cm="1">
         <f t="array" ref="AD8">INDEX(AD$16:AD$24,MATCH($AA8,$AA$16:$AA$18,0)-1+MATCH($Z8,$Z$16:$Z$24,0))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF8" s="8">
         <v>2</v>
@@ -3860,11 +4046,11 @@
       </c>
       <c r="AK8" s="71" cm="1">
         <f t="array" ref="AK8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AK$4)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="72" cm="1">
         <f t="array" ref="AL8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AL$4)</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="73" cm="1">
         <f t="array" ref="AM8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AM$4)</f>
@@ -3872,11 +4058,11 @@
       </c>
       <c r="AN8" s="74" cm="1">
         <f t="array" ref="AN8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AN$4)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="75" cm="1">
         <f t="array" ref="AO8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AO$4)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="76" cm="1">
         <f t="array" ref="AP8">INDEX($AB$7:$AD$7,1,$AF8)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG8)*INDEX($AB$10:$AD$10,1,AP$4)</f>
@@ -3898,7 +4084,7 @@
         <v>#N/A</v>
       </c>
       <c r="O9" t="e">
-        <f>MATCH(1,G$5:G$13,0)</f>
+        <f>MATCH($N$2,G$5:G$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P9">
@@ -3914,7 +4100,7 @@
         <v>#N/A</v>
       </c>
       <c r="U9" t="e">
-        <f>MATCH(0,G$5:G$13,0)</f>
+        <f>MATCH($T$2,G$5:G$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V9">
@@ -3927,15 +4113,15 @@
       </c>
       <c r="Z9" s="117">
         <f>R7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="117">
         <f>X7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="119" cm="1">
         <f t="array" ref="AB9">INDEX(AB$16:AB$24,MATCH($AA9,$AA$16:$AA$18,0)-1+MATCH($Z9,$Z$16:$Z$24,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="119" cm="1">
         <f t="array" ref="AC9">INDEX(AC$16:AC$24,MATCH($AA9,$AA$16:$AA$18,0)-1+MATCH($Z9,$Z$16:$Z$24,0))</f>
@@ -3943,7 +4129,7 @@
       </c>
       <c r="AD9" s="119" cm="1">
         <f t="array" ref="AD9">INDEX(AD$16:AD$24,MATCH($AA9,$AA$16:$AA$18,0)-1+MATCH($Z9,$Z$16:$Z$24,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="8">
         <v>2</v>
@@ -3965,11 +4151,11 @@
       </c>
       <c r="AK9" s="77" cm="1">
         <f t="array" ref="AK9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AK$4)</f>
-        <v>0.125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AL9" s="78" cm="1">
         <f t="array" ref="AL9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AL$4)</f>
-        <v>6.25E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="AM9" s="79" cm="1">
         <f t="array" ref="AM9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AM$4)</f>
@@ -3977,11 +4163,11 @@
       </c>
       <c r="AN9" s="80" cm="1">
         <f t="array" ref="AN9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AN$4)</f>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AO9" s="81" cm="1">
         <f t="array" ref="AO9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AO$4)</f>
-        <v>0.125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AP9" s="82" cm="1">
         <f t="array" ref="AP9">INDEX($AB$7:$AD$7,1,$AF9)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG9)*INDEX($AB$10:$AD$10,1,AP$4)</f>
@@ -3992,7 +4178,9 @@
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="63">
+        <v>1</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38"/>
       <c r="I10" s="54"/>
@@ -4003,7 +4191,7 @@
         <v>#N/A</v>
       </c>
       <c r="O10" t="e">
-        <f>MATCH(1,H$5:H$13,0)</f>
+        <f>MATCH($N$2,H$5:H$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P10">
@@ -4014,17 +4202,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T10" t="e">
+      <c r="T10">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="U10" t="e">
-        <f>MATCH(0,H$5:H$13,0)</f>
+        <f>MATCH($T$2,H$5:H$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W10">
         <f t="shared" si="4"/>
@@ -4070,11 +4258,11 @@
       </c>
       <c r="AK10" s="89" cm="1">
         <f t="array" ref="AK10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AK$4)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AL10" s="84" cm="1">
         <f t="array" ref="AL10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AL$4)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AM10" s="90" cm="1">
         <f t="array" ref="AM10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AM$4)</f>
@@ -4082,11 +4270,11 @@
       </c>
       <c r="AN10" s="86" cm="1">
         <f t="array" ref="AN10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AN$4)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AO10" s="87" cm="1">
         <f t="array" ref="AO10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AO$4)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AP10" s="88" cm="1">
         <f t="array" ref="AP10">INDEX($AB$7:$AD$7,1,$AF10)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG10)*INDEX($AB$10:$AD$10,1,AP$4)</f>
@@ -4107,9 +4295,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O11" t="e">
-        <f>MATCH(1,I$5:I$13,0)</f>
-        <v>#N/A</v>
+      <c r="O11">
+        <f>MATCH($N$2,I$5:I$13,0)</f>
+        <v>9</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
@@ -4117,14 +4305,14 @@
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T11" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="U11" t="e">
-        <f>MATCH(0,I$5:I$13,0)</f>
+        <f>MATCH($T$2,I$5:I$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V11">
@@ -4193,7 +4381,7 @@
         <v>#N/A</v>
       </c>
       <c r="O12" t="e">
-        <f>MATCH(1,J$5:J$13,0)</f>
+        <f>MATCH($N$2,J$5:J$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P12">
@@ -4209,7 +4397,7 @@
         <v>#N/A</v>
       </c>
       <c r="U12" t="e">
-        <f>MATCH(0,J$5:J$13,0)</f>
+        <f>MATCH($T$2,J$5:J$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V12">
@@ -4242,11 +4430,11 @@
       </c>
       <c r="AK12" s="77" cm="1">
         <f t="array" ref="AK12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AK$4)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AL12" s="78" cm="1">
         <f t="array" ref="AL12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AL$4)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AM12" s="94" cm="1">
         <f t="array" ref="AM12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AM$4)</f>
@@ -4254,11 +4442,11 @@
       </c>
       <c r="AN12" s="77" cm="1">
         <f t="array" ref="AN12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AN$4)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AO12" s="78" cm="1">
         <f t="array" ref="AO12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AO$4)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AP12" s="79" cm="1">
         <f t="array" ref="AP12">INDEX($AB$7:$AD$7,1,$AF12)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG12)*INDEX($AB$10:$AD$10,1,AP$4)</f>
@@ -4272,20 +4460,22 @@
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
       <c r="H13" s="66"/>
-      <c r="I13" s="58"/>
+      <c r="I13" s="58">
+        <v>2</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
-      <c r="N13" t="e">
+      <c r="N13">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="O13" t="e">
-        <f>MATCH(1,K$5:K$13,0)</f>
+        <f>MATCH($N$2,K$5:K$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -4296,7 +4486,7 @@
         <v>#N/A</v>
       </c>
       <c r="U13" t="e">
-        <f>MATCH(0,K$5:K$13,0)</f>
+        <f>MATCH($T$2,K$5:K$13,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V13">
@@ -4327,11 +4517,11 @@
       </c>
       <c r="AK13" s="83" cm="1">
         <f t="array" ref="AK13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AK$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AK$4)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AL13" s="84" cm="1">
         <f t="array" ref="AL13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AL$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AL$4)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AM13" s="95" cm="1">
         <f t="array" ref="AM13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AM$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AM$4)</f>
@@ -4339,24 +4529,24 @@
       </c>
       <c r="AN13" s="96" cm="1">
         <f t="array" ref="AN13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AN$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AN$4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO13" s="84" cm="1">
         <f t="array" ref="AO13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AO$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AO$4)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AP13" s="90" cm="1">
         <f t="array" ref="AP13">INDEX($AB$7:$AD$7,1,$AF13)*INDEX($AB$8:$AD$8,1,AP$3)*INDEX($AB$9:$AD$9,1,$AG13)*INDEX($AB$10:$AD$10,1,AP$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:52" hidden="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:52" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="AB14" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AH14"/>
     </row>
-    <row r="15" spans="2:52" hidden="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:52" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z15" t="s">
         <v>131</v>
       </c>
@@ -4374,7 +4564,7 @@
       </c>
       <c r="AH15"/>
     </row>
-    <row r="16" spans="2:52" hidden="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:52" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z16" s="7">
         <v>0</v>
       </c>
@@ -4394,7 +4584,7 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="3:53" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z17" s="7">
         <v>0</v>
       </c>
@@ -4414,7 +4604,7 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="3:53" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z18" s="7">
         <v>0</v>
       </c>
@@ -4434,7 +4624,7 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="3:53" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z19" s="7">
         <v>1</v>
       </c>
@@ -4454,7 +4644,7 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="3:53" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z20" s="7">
         <v>1</v>
       </c>
@@ -4478,7 +4668,7 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
     </row>
-    <row r="21" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="3:53" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z21" s="7">
         <v>1</v>
       </c>
@@ -4502,7 +4692,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="7"/>
     </row>
-    <row r="22" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="3:53" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z22" s="7">
         <v>2</v>
       </c>
@@ -4527,7 +4717,7 @@
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
     </row>
-    <row r="23" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="3:53" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z23" s="7">
         <v>2</v>
       </c>
@@ -4551,7 +4741,7 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="7"/>
     </row>
-    <row r="24" spans="26:53" hidden="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="3:53" ht="23.35" hidden="1" x14ac:dyDescent="0.7">
       <c r="Z24" s="7">
         <v>2</v>
       </c>
@@ -4572,86 +4762,516 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
     </row>
-    <row r="25" spans="26:53" x14ac:dyDescent="0.7">
+    <row r="25" spans="3:53" x14ac:dyDescent="0.7">
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
       <c r="AY25" s="2"/>
       <c r="AZ25" s="2"/>
       <c r="BA25" s="2"/>
     </row>
-    <row r="26" spans="26:53" x14ac:dyDescent="0.7">
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="7"/>
-      <c r="AY26" s="7"/>
-      <c r="AZ26" s="7"/>
-    </row>
-    <row r="27" spans="26:53" x14ac:dyDescent="0.7">
+    <row r="26" spans="3:53" s="148" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AH26" s="150"/>
+      <c r="AN26" s="149"/>
+      <c r="AO26" s="149"/>
+      <c r="AP26" s="149"/>
+      <c r="AQ26" s="149"/>
+      <c r="AS26" s="149"/>
+      <c r="AT26" s="149"/>
+      <c r="AU26" s="149"/>
+      <c r="AV26" s="149"/>
+      <c r="AW26" s="149"/>
+      <c r="AX26" s="149"/>
+      <c r="AY26" s="149"/>
+      <c r="AZ26" s="149"/>
+    </row>
+    <row r="27" spans="3:53" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="32"/>
+      <c r="AB27" s="121" t="s">
+        <v>133</v>
+      </c>
       <c r="AW27" s="7"/>
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="AZ27" s="7"/>
     </row>
-    <row r="28" spans="26:53" x14ac:dyDescent="0.7">
+    <row r="28" spans="3:53" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="34"/>
+      <c r="AB28" s="121" t="s">
+        <v>134</v>
+      </c>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
       <c r="AY28" s="2"/>
       <c r="AZ28" s="2"/>
       <c r="BA28" s="2"/>
     </row>
-    <row r="29" spans="26:53" x14ac:dyDescent="0.7">
+    <row r="29" spans="3:53" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C29" s="116"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="AB29" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC29" s="121"/>
       <c r="AY29" s="7"/>
       <c r="AZ29" s="7"/>
     </row>
-    <row r="30" spans="26:53" x14ac:dyDescent="0.7">
+    <row r="30" spans="3:53" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C30" s="109"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
     </row>
-    <row r="31" spans="26:53" x14ac:dyDescent="0.7">
+    <row r="31" spans="3:53" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="C31" s="100"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="53">
+        <v>1</v>
+      </c>
+      <c r="J31" s="20">
+        <v>1</v>
+      </c>
+      <c r="K31" s="34"/>
       <c r="AY31" s="7"/>
       <c r="AZ31" s="7"/>
     </row>
-    <row r="32" spans="26:53" x14ac:dyDescent="0.7">
+    <row r="32" spans="3:53" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="63">
+        <v>1</v>
+      </c>
+      <c r="G32" s="37">
+        <v>1</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="54">
+        <v>1</v>
+      </c>
+      <c r="J32" s="43">
+        <v>1</v>
+      </c>
+      <c r="K32" s="44"/>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
     </row>
-    <row r="33" spans="51:52" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:52" x14ac:dyDescent="0.7">
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="42"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="7"/>
     </row>
-    <row r="34" spans="51:52" x14ac:dyDescent="0.7">
+    <row r="34" spans="3:52" x14ac:dyDescent="0.7">
+      <c r="C34" s="33"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="33">
+        <v>1</v>
+      </c>
+      <c r="G34" s="21">
+        <v>1</v>
+      </c>
+      <c r="H34" s="65"/>
+      <c r="I34" s="57">
+        <v>1</v>
+      </c>
+      <c r="J34" s="21">
+        <v>1</v>
+      </c>
+      <c r="K34" s="35"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
     </row>
-    <row r="35" spans="51:52" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:52" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="36">
+        <v>1</v>
+      </c>
+      <c r="G35" s="37">
+        <v>1</v>
+      </c>
+      <c r="H35" s="66"/>
+      <c r="I35" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="37">
+        <v>1</v>
+      </c>
+      <c r="K35" s="38"/>
       <c r="AY35" s="7"/>
       <c r="AZ35" s="7"/>
     </row>
-    <row r="36" spans="51:52" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:52" x14ac:dyDescent="0.7">
       <c r="AY36" s="7"/>
       <c r="AZ36" s="7"/>
     </row>
-    <row r="37" spans="51:52" x14ac:dyDescent="0.7">
+    <row r="37" spans="3:52" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="AY37" s="7"/>
       <c r="AZ37" s="7"/>
     </row>
-    <row r="38" spans="51:52" x14ac:dyDescent="0.7">
+    <row r="38" spans="3:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="32"/>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="7"/>
     </row>
-    <row r="39" spans="51:52" x14ac:dyDescent="0.7">
+    <row r="39" spans="3:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C39" s="110"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="34"/>
       <c r="AY39" s="7"/>
       <c r="AZ39" s="7"/>
     </row>
-    <row r="40" spans="51:52" x14ac:dyDescent="0.7">
+    <row r="40" spans="3:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C40" s="116"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="44"/>
       <c r="AY40" s="7"/>
       <c r="AZ40" s="7"/>
+    </row>
+    <row r="41" spans="3:52" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C41" s="109"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+    </row>
+    <row r="42" spans="3:52" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="C42" s="100"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="34"/>
+    </row>
+    <row r="43" spans="3:52" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="44"/>
+    </row>
+    <row r="44" spans="3:52" x14ac:dyDescent="0.7">
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="42"/>
+    </row>
+    <row r="45" spans="3:52" x14ac:dyDescent="0.7">
+      <c r="C45" s="33"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="3:52" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="48" spans="3:52" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="49" spans="3:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="32"/>
+    </row>
+    <row r="50" spans="3:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C50" s="110"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="3:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C51" s="116"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="44"/>
+    </row>
+    <row r="52" spans="3:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C52" s="109"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="46"/>
+    </row>
+    <row r="53" spans="3:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="C53" s="100"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="34"/>
+    </row>
+    <row r="54" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="44"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.7">
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.7">
+      <c r="C56" s="33"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="35"/>
+    </row>
+    <row r="57" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
+    </row>
+    <row r="59" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="60" spans="3:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="32"/>
+    </row>
+    <row r="61" spans="3:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C61" s="110"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="34"/>
+    </row>
+    <row r="62" spans="3:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C62" s="116"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="44"/>
+    </row>
+    <row r="63" spans="3:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C63" s="109"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="46"/>
+    </row>
+    <row r="64" spans="3:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="C64" s="100"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="34"/>
+    </row>
+    <row r="65" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C65" s="36"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="44"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.7">
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="42"/>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.7">
+      <c r="C67" s="33"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="35"/>
+    </row>
+    <row r="68" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AB5:AD5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B11 K3 B8 B5">
+  <conditionalFormatting sqref="K3 B11 B8 B5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4661,7 +5281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O97:AD1048576 S35:AD96 O40:R41 O32:R37 O24:R28 I35:K1048576 D35:F1048576 S3:AD3">
+  <conditionalFormatting sqref="O97:AD1048576 S35:AD96 O40:R41 O32:R37 O24:R28 I36:K37 D36:F37 S3:AD3 D47:F48 I47:K48 I58:K59 D58:F59 D69:F1048576 I69:K1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4698,6 +5318,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -5461,6 +6082,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -6790,6 +7412,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:F19"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -10064,9 +10687,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4269E2-70B9-457A-AE7D-0615CD5C6CB4}">
   <dimension ref="C2:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
@@ -12999,6 +13623,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
